--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="33">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -50,34 +50,16 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -538,31 +520,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -573,31 +555,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -608,31 +590,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -640,34 +622,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -675,34 +657,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -710,34 +692,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -745,34 +727,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -780,34 +762,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -815,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -850,34 +832,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +877,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -909,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -923,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -937,13 +919,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -951,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -965,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -979,13 +961,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -993,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1007,13 +989,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1021,13 +1003,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1035,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1059,16 +1041,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1076,16 +1058,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
-        <v>-1.199999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1093,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-0.6999999999999993</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1110,16 +1092,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>8.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D4">
-        <v>0.3000000000000007</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1127,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1144,16 +1126,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="D6">
-        <v>-0.5999999999999996</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1161,16 +1143,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="D7">
-        <v>0.5999999999999996</v>
+        <v>-0.7</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1178,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1198,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1212,16 +1194,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1229,16 +1211,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>-0.2999999999999998</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1256,268 +1238,268 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>30.43</v>
+        <v>38.94</v>
       </c>
       <c r="C2">
-        <v>22.34</v>
+        <v>29.98</v>
       </c>
       <c r="D2">
-        <v>16.75</v>
+        <v>17.23</v>
       </c>
       <c r="E2">
-        <v>11.76</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F2">
-        <v>8.43</v>
+        <v>3.39</v>
       </c>
       <c r="G2">
-        <v>5.390000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="H2">
-        <v>2.97</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I2">
-        <v>1.42</v>
+        <v>0.21</v>
       </c>
       <c r="J2">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>95.10000000000001</v>
+        <v>99.17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>24.11</v>
+        <v>34.06</v>
       </c>
       <c r="C3">
-        <v>20.43</v>
+        <v>26.93</v>
       </c>
       <c r="D3">
-        <v>16.82</v>
+        <v>18.71</v>
       </c>
       <c r="E3">
-        <v>14.06</v>
+        <v>10.71</v>
       </c>
       <c r="F3">
-        <v>9.890000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>7.489999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="H3">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
-        <v>1.92</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="J3">
-        <v>0.8699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>92.8</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>20.58</v>
+        <v>17.99</v>
       </c>
       <c r="C4">
-        <v>21.85</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>19.43</v>
+        <v>21.23</v>
       </c>
       <c r="E4">
-        <v>15.17</v>
+        <v>16.22</v>
       </c>
       <c r="F4">
-        <v>10.04</v>
+        <v>10.22</v>
       </c>
       <c r="G4">
-        <v>6.69</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="H4">
-        <v>3.89</v>
+        <v>3.77</v>
       </c>
       <c r="I4">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="J4">
-        <v>0.5700000000000001</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="K4">
         <v>0.06</v>
       </c>
       <c r="L4">
-        <v>93.76000000000001</v>
+        <v>93.25999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>10.03</v>
+        <v>4.23</v>
       </c>
       <c r="C5">
-        <v>11.74</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D5">
-        <v>13.9</v>
+        <v>14.18</v>
       </c>
       <c r="E5">
-        <v>14.23</v>
+        <v>15.97</v>
       </c>
       <c r="F5">
-        <v>15.48</v>
+        <v>15.55</v>
       </c>
       <c r="G5">
-        <v>13.66</v>
+        <v>14.28</v>
       </c>
       <c r="H5">
-        <v>10.22</v>
+        <v>11.83</v>
       </c>
       <c r="I5">
-        <v>6.75</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="J5">
-        <v>3.28</v>
+        <v>5.7</v>
       </c>
       <c r="K5">
-        <v>0.7100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>79.04000000000001</v>
+        <v>72.51000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7.94</v>
+        <v>1.97</v>
       </c>
       <c r="C6">
-        <v>10.9</v>
+        <v>5.2</v>
       </c>
       <c r="D6">
-        <v>12.72</v>
+        <v>8.99</v>
       </c>
       <c r="E6">
-        <v>14.33</v>
+        <v>13.01</v>
       </c>
       <c r="F6">
-        <v>15.1</v>
+        <v>15.15</v>
       </c>
       <c r="G6">
-        <v>14.08</v>
+        <v>15.86</v>
       </c>
       <c r="H6">
-        <v>11.13</v>
+        <v>14.59</v>
       </c>
       <c r="I6">
-        <v>8.129999999999999</v>
+        <v>13.07</v>
       </c>
       <c r="J6">
-        <v>4.53</v>
+        <v>10.36</v>
       </c>
       <c r="K6">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>75.07000000000001</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4.95</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>7.82</v>
+        <v>4.24</v>
       </c>
       <c r="D7">
-        <v>10.57</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E7">
-        <v>13.52</v>
+        <v>12.72</v>
       </c>
       <c r="F7">
-        <v>14.84</v>
+        <v>14.97</v>
       </c>
       <c r="G7">
-        <v>14.46</v>
+        <v>15.51</v>
       </c>
       <c r="H7">
-        <v>13.95</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>10.76</v>
+        <v>13.45</v>
       </c>
       <c r="J7">
-        <v>7.149999999999999</v>
+        <v>10.99</v>
       </c>
       <c r="K7">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>66.16</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1525,151 +1507,151 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
       <c r="C8">
-        <v>2.97</v>
+        <v>2.23</v>
       </c>
       <c r="D8">
-        <v>5.149999999999999</v>
+        <v>4.91</v>
       </c>
       <c r="E8">
-        <v>8.450000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F8">
-        <v>11.64</v>
+        <v>14.13</v>
       </c>
       <c r="G8">
-        <v>14.39</v>
+        <v>15.47</v>
       </c>
       <c r="H8">
-        <v>17.03</v>
+        <v>17.25</v>
       </c>
       <c r="I8">
-        <v>17.92</v>
+        <v>16.91</v>
       </c>
       <c r="J8">
-        <v>14.98</v>
+        <v>14.28</v>
       </c>
       <c r="K8">
-        <v>6.16</v>
+        <v>4.43</v>
       </c>
       <c r="L8">
-        <v>43.91</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="D9">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="E9">
-        <v>4.84</v>
+        <v>6.41</v>
       </c>
       <c r="F9">
-        <v>7.91</v>
+        <v>10.31</v>
       </c>
       <c r="G9">
-        <v>11.89</v>
+        <v>13.31</v>
       </c>
       <c r="H9">
-        <v>16.64</v>
+        <v>16.28</v>
       </c>
       <c r="I9">
-        <v>20.68</v>
+        <v>19.49</v>
       </c>
       <c r="J9">
-        <v>21.73</v>
+        <v>21.97</v>
       </c>
       <c r="K9">
-        <v>11.56</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="L9">
-        <v>29.39</v>
+        <v>34.88</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.62</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="D10">
-        <v>1.67</v>
+        <v>2.77</v>
       </c>
       <c r="E10">
-        <v>3.51</v>
+        <v>6.74</v>
       </c>
       <c r="F10">
-        <v>6.140000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="G10">
-        <v>10.54</v>
+        <v>14.58</v>
       </c>
       <c r="H10">
-        <v>16.14</v>
+        <v>17.44</v>
       </c>
       <c r="I10">
-        <v>21.24</v>
+        <v>19.81</v>
       </c>
       <c r="J10">
-        <v>24.47</v>
+        <v>19.66</v>
       </c>
       <c r="K10">
-        <v>15.55</v>
+        <v>7.23</v>
       </c>
       <c r="L10">
-        <v>22.6</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="G11">
-        <v>1.41</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="H11">
-        <v>3.73</v>
+        <v>1.87</v>
       </c>
       <c r="I11">
-        <v>9.460000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="J11">
-        <v>21.96</v>
+        <v>16.1</v>
       </c>
       <c r="K11">
-        <v>62.68</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="L11">
-        <v>2.17</v>
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -1687,16 +1669,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1704,13 +1686,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1721,13 +1703,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1738,13 +1720,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1755,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1772,13 +1754,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1789,13 +1771,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1806,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>-7</v>
@@ -1823,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1840,13 +1822,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1857,13 +1839,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-37</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -50,16 +51,19 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -117,6 +121,45 @@
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -523,10 +566,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -535,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -558,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -593,10 +636,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -608,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -657,34 +700,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -698,22 +741,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -730,31 +773,31 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -765,31 +808,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -803,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -818,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -835,31 +878,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -877,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -891,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -905,10 +948,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -919,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -936,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -950,10 +993,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,10 +1004,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -975,13 +1018,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -989,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1020,10 +1063,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1041,16 +1084,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1058,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D2">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1075,16 +1118,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1092,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D4">
-        <v>-0.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1109,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D5">
-        <v>-0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1126,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D6">
-        <v>0.6000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1143,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1160,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>-0.8</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1177,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1194,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1211,16 +1254,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
-        <v>-0.09999999999999998</v>
+        <v>-0.7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1238,154 +1281,154 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>38.94</v>
+        <v>39.81</v>
       </c>
       <c r="C2">
-        <v>29.98</v>
+        <v>28.09</v>
       </c>
       <c r="D2">
-        <v>17.23</v>
+        <v>18.63</v>
       </c>
       <c r="E2">
-        <v>8.359999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="F2">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="G2">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="H2">
-        <v>0.5700000000000001</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I2">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="J2">
-        <v>0.05</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.17</v>
+        <v>99.11999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>34.06</v>
+        <v>25.75</v>
       </c>
       <c r="C3">
-        <v>26.93</v>
+        <v>23.81</v>
       </c>
       <c r="D3">
-        <v>18.71</v>
+        <v>19.5</v>
       </c>
       <c r="E3">
-        <v>10.71</v>
+        <v>13.74</v>
       </c>
       <c r="F3">
-        <v>5.4</v>
+        <v>8.23</v>
       </c>
       <c r="G3">
-        <v>2.41</v>
+        <v>4.71</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>2.56</v>
       </c>
       <c r="I3">
-        <v>0.5700000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="J3">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
-        <v>98.22</v>
+        <v>95.73999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>17.99</v>
+        <v>24.29</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>24.87</v>
       </c>
       <c r="D4">
-        <v>21.23</v>
+        <v>20.84</v>
       </c>
       <c r="E4">
-        <v>16.22</v>
+        <v>14.57</v>
       </c>
       <c r="F4">
-        <v>10.22</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="G4">
-        <v>6.600000000000001</v>
+        <v>3.99</v>
       </c>
       <c r="H4">
-        <v>3.77</v>
+        <v>2.04</v>
       </c>
       <c r="I4">
-        <v>2.13</v>
+        <v>0.86</v>
       </c>
       <c r="J4">
-        <v>0.7799999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="K4">
         <v>0.06</v>
       </c>
       <c r="L4">
-        <v>93.25999999999999</v>
+        <v>96.77999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1393,37 +1436,37 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4.23</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="C5">
-        <v>8.300000000000001</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="D5">
-        <v>14.18</v>
+        <v>14.24</v>
       </c>
       <c r="E5">
-        <v>15.97</v>
+        <v>16.75</v>
       </c>
       <c r="F5">
-        <v>15.55</v>
+        <v>16.47</v>
       </c>
       <c r="G5">
-        <v>14.28</v>
+        <v>13.71</v>
       </c>
       <c r="H5">
-        <v>11.83</v>
+        <v>10.18</v>
       </c>
       <c r="I5">
-        <v>9.120000000000001</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="J5">
-        <v>5.7</v>
+        <v>4.31</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>2.19</v>
       </c>
       <c r="L5">
-        <v>72.51000000000001</v>
+        <v>76.46000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1431,113 +1474,113 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.97</v>
+        <v>2.45</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>6.05</v>
       </c>
       <c r="D6">
-        <v>8.99</v>
+        <v>10.21</v>
       </c>
       <c r="E6">
-        <v>13.01</v>
+        <v>14.38</v>
       </c>
       <c r="F6">
-        <v>15.15</v>
+        <v>15.96</v>
       </c>
       <c r="G6">
-        <v>15.86</v>
+        <v>15.81</v>
       </c>
       <c r="H6">
-        <v>14.59</v>
+        <v>12.99</v>
       </c>
       <c r="I6">
-        <v>13.07</v>
+        <v>10.21</v>
       </c>
       <c r="J6">
-        <v>10.36</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="L6">
-        <v>60.18</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="C7">
-        <v>4.24</v>
+        <v>3.88</v>
       </c>
       <c r="D7">
-        <v>8.720000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="E7">
-        <v>12.72</v>
+        <v>12.31</v>
       </c>
       <c r="F7">
-        <v>14.97</v>
+        <v>14.84</v>
       </c>
       <c r="G7">
-        <v>15.51</v>
+        <v>16.32</v>
       </c>
       <c r="H7">
-        <v>15.3</v>
+        <v>14.38</v>
       </c>
       <c r="I7">
-        <v>13.45</v>
+        <v>12.49</v>
       </c>
       <c r="J7">
-        <v>10.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>6.48</v>
       </c>
       <c r="L7">
-        <v>57.76</v>
+        <v>56.85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="C8">
-        <v>2.23</v>
+        <v>1.07</v>
       </c>
       <c r="D8">
-        <v>4.91</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9.81</v>
+        <v>6.4</v>
       </c>
       <c r="F8">
-        <v>14.13</v>
+        <v>10.35</v>
       </c>
       <c r="G8">
-        <v>15.47</v>
+        <v>13.24</v>
       </c>
       <c r="H8">
-        <v>17.25</v>
+        <v>15.6</v>
       </c>
       <c r="I8">
-        <v>16.91</v>
+        <v>16.42</v>
       </c>
       <c r="J8">
-        <v>14.28</v>
+        <v>16.87</v>
       </c>
       <c r="K8">
-        <v>4.43</v>
+        <v>16.69</v>
       </c>
       <c r="L8">
-        <v>47.13</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1545,113 +1588,113 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="C9">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="D9">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="E9">
-        <v>6.41</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="F9">
-        <v>10.31</v>
+        <v>11.14</v>
       </c>
       <c r="G9">
-        <v>13.31</v>
+        <v>13.23</v>
       </c>
       <c r="H9">
-        <v>16.28</v>
+        <v>14.72</v>
       </c>
       <c r="I9">
-        <v>19.49</v>
+        <v>16.46</v>
       </c>
       <c r="J9">
-        <v>21.97</v>
+        <v>15.93</v>
       </c>
       <c r="K9">
-        <v>7.380000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="L9">
-        <v>34.88</v>
+        <v>38.42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.8500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>2.77</v>
+        <v>0.77</v>
       </c>
       <c r="E10">
-        <v>6.74</v>
+        <v>2.42</v>
       </c>
       <c r="F10">
-        <v>10.62</v>
+        <v>5.27</v>
       </c>
       <c r="G10">
-        <v>14.58</v>
+        <v>8.01</v>
       </c>
       <c r="H10">
-        <v>17.44</v>
+        <v>13.56</v>
       </c>
       <c r="I10">
-        <v>19.81</v>
+        <v>17.59</v>
       </c>
       <c r="J10">
-        <v>19.66</v>
+        <v>23.89</v>
       </c>
       <c r="K10">
-        <v>7.23</v>
+        <v>28.25</v>
       </c>
       <c r="L10">
-        <v>35.86</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>1.18</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>3.3</v>
       </c>
       <c r="F11">
-        <v>0.26</v>
+        <v>6.17</v>
       </c>
       <c r="G11">
-        <v>0.7100000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="H11">
-        <v>1.87</v>
+        <v>13.41</v>
       </c>
       <c r="I11">
-        <v>5.24</v>
+        <v>17.71</v>
       </c>
       <c r="J11">
-        <v>16.1</v>
+        <v>21.19</v>
       </c>
       <c r="K11">
-        <v>75.76000000000001</v>
+        <v>27.05</v>
       </c>
       <c r="L11">
-        <v>1.03</v>
+        <v>20.64</v>
       </c>
     </row>
   </sheetData>
@@ -1669,16 +1712,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1689,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1703,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1723,13 +1766,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1737,16 +1780,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1754,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1771,16 +1814,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1788,16 +1831,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>-7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1805,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1822,16 +1865,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1842,13 +1885,243 @@
         <v>6</v>
       </c>
       <c r="C11">
+        <v>-12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
+        <v>-8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-11</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-10</v>
+      </c>
+      <c r="D11">
         <v>-16</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -1322,28 +1322,28 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>39.81</v>
+        <v>40.88</v>
       </c>
       <c r="C2">
-        <v>28.09</v>
+        <v>27.94</v>
       </c>
       <c r="D2">
-        <v>18.63</v>
+        <v>17.04</v>
       </c>
       <c r="E2">
-        <v>7.82</v>
+        <v>8.09</v>
       </c>
       <c r="F2">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="G2">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H2">
-        <v>0.5599999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I2">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
         <v>0.06999999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.11999999999999</v>
+        <v>99.17999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1360,37 +1360,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25.75</v>
+        <v>24.87</v>
       </c>
       <c r="C3">
-        <v>23.81</v>
+        <v>24.42</v>
       </c>
       <c r="D3">
-        <v>19.5</v>
+        <v>19.92</v>
       </c>
       <c r="E3">
-        <v>13.74</v>
+        <v>13.14</v>
       </c>
       <c r="F3">
-        <v>8.23</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="G3">
-        <v>4.71</v>
+        <v>4.65</v>
       </c>
       <c r="H3">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="I3">
-        <v>1.16</v>
+        <v>0.95</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="L3">
-        <v>95.73999999999999</v>
+        <v>95.87000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1398,37 +1398,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.29</v>
+        <v>24.53</v>
       </c>
       <c r="C4">
-        <v>24.87</v>
+        <v>24.01</v>
       </c>
       <c r="D4">
-        <v>20.84</v>
+        <v>22.34</v>
       </c>
       <c r="E4">
-        <v>14.57</v>
+        <v>14.25</v>
       </c>
       <c r="F4">
-        <v>8.219999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="G4">
-        <v>3.99</v>
+        <v>3.88</v>
       </c>
       <c r="H4">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="J4">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L4">
-        <v>96.77999999999999</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1436,37 +1436,37 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.319999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="C5">
-        <v>9.969999999999999</v>
+        <v>10.01</v>
       </c>
       <c r="D5">
-        <v>14.24</v>
+        <v>14.22</v>
       </c>
       <c r="E5">
-        <v>16.75</v>
+        <v>16.68</v>
       </c>
       <c r="F5">
-        <v>16.47</v>
+        <v>16.35</v>
       </c>
       <c r="G5">
-        <v>13.71</v>
+        <v>14.06</v>
       </c>
       <c r="H5">
-        <v>10.18</v>
+        <v>10.42</v>
       </c>
       <c r="I5">
-        <v>6.859999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="J5">
-        <v>4.31</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="K5">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="L5">
-        <v>76.46000000000001</v>
+        <v>76.27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1474,37 +1474,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="C6">
-        <v>6.05</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="D6">
-        <v>10.21</v>
+        <v>9.9</v>
       </c>
       <c r="E6">
-        <v>14.38</v>
+        <v>14.84</v>
       </c>
       <c r="F6">
-        <v>15.96</v>
+        <v>15.12</v>
       </c>
       <c r="G6">
-        <v>15.81</v>
+        <v>15.63</v>
       </c>
       <c r="H6">
-        <v>12.99</v>
+        <v>13.06</v>
       </c>
       <c r="I6">
-        <v>10.21</v>
+        <v>10.81</v>
       </c>
       <c r="J6">
-        <v>7.180000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="K6">
-        <v>4.760000000000001</v>
+        <v>4.88</v>
       </c>
       <c r="L6">
-        <v>64.86</v>
+        <v>63.77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1512,189 +1512,189 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="C7">
-        <v>3.88</v>
+        <v>4.14</v>
       </c>
       <c r="D7">
-        <v>7.89</v>
+        <v>7.76</v>
       </c>
       <c r="E7">
-        <v>12.31</v>
+        <v>12.26</v>
       </c>
       <c r="F7">
-        <v>14.84</v>
+        <v>15.17</v>
       </c>
       <c r="G7">
-        <v>16.32</v>
+        <v>15.23</v>
       </c>
       <c r="H7">
-        <v>14.38</v>
+        <v>14.82</v>
       </c>
       <c r="I7">
-        <v>12.49</v>
+        <v>12.18</v>
       </c>
       <c r="J7">
-        <v>9.800000000000001</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="K7">
-        <v>6.48</v>
+        <v>7.31</v>
       </c>
       <c r="L7">
-        <v>56.85</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="C8">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="E8">
-        <v>6.4</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F8">
-        <v>10.35</v>
+        <v>11.37</v>
       </c>
       <c r="G8">
-        <v>13.24</v>
+        <v>13.82</v>
       </c>
       <c r="H8">
-        <v>15.6</v>
+        <v>14.68</v>
       </c>
       <c r="I8">
-        <v>16.42</v>
+        <v>15.84</v>
       </c>
       <c r="J8">
-        <v>16.87</v>
+        <v>16.09</v>
       </c>
       <c r="K8">
-        <v>16.69</v>
+        <v>14.48</v>
       </c>
       <c r="L8">
-        <v>34.42</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="C9">
-        <v>1.66</v>
+        <v>1.19</v>
       </c>
       <c r="D9">
-        <v>3.74</v>
+        <v>3.21</v>
       </c>
       <c r="E9">
-        <v>8.309999999999999</v>
+        <v>6.84</v>
       </c>
       <c r="F9">
-        <v>11.14</v>
+        <v>10.17</v>
       </c>
       <c r="G9">
-        <v>13.23</v>
+        <v>13.07</v>
       </c>
       <c r="H9">
-        <v>14.72</v>
+        <v>15.29</v>
       </c>
       <c r="I9">
-        <v>16.46</v>
+        <v>16.68</v>
       </c>
       <c r="J9">
-        <v>15.93</v>
+        <v>16.76</v>
       </c>
       <c r="K9">
-        <v>14.47</v>
+        <v>16.44</v>
       </c>
       <c r="L9">
-        <v>38.42</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.77</v>
+        <v>1.29</v>
       </c>
       <c r="E10">
-        <v>2.42</v>
+        <v>3.32</v>
       </c>
       <c r="F10">
-        <v>5.27</v>
+        <v>6.47</v>
       </c>
       <c r="G10">
-        <v>8.01</v>
+        <v>9.33</v>
       </c>
       <c r="H10">
-        <v>13.56</v>
+        <v>13.64</v>
       </c>
       <c r="I10">
-        <v>17.59</v>
+        <v>17.4</v>
       </c>
       <c r="J10">
-        <v>23.89</v>
+        <v>21.94</v>
       </c>
       <c r="K10">
-        <v>28.25</v>
+        <v>26.2</v>
       </c>
       <c r="L10">
-        <v>16.71</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="D11">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="E11">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="F11">
-        <v>6.17</v>
+        <v>5.02</v>
       </c>
       <c r="G11">
-        <v>9.56</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="H11">
-        <v>13.41</v>
+        <v>12.9</v>
       </c>
       <c r="I11">
-        <v>17.71</v>
+        <v>18.34</v>
       </c>
       <c r="J11">
-        <v>21.19</v>
+        <v>22.9</v>
       </c>
       <c r="K11">
-        <v>27.05</v>
+        <v>28.36</v>
       </c>
       <c r="L11">
-        <v>20.64</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -1901,226 +1901,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
       <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>11</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>-6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>-4</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-7</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-16</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="48">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -51,19 +51,22 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -123,31 +126,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -563,28 +566,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -610,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -633,31 +636,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -671,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -686,13 +689,13 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -700,34 +703,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -741,19 +744,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -770,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -782,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -808,31 +811,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -840,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -855,19 +858,19 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -875,10 +878,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -887,22 +890,22 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -920,13 +923,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -937,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -948,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -962,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -976,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -990,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1004,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1021,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1032,13 +1035,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1046,13 +1049,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1060,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1084,16 +1087,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1101,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D2">
-        <v>-0.1000000000000001</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1118,16 +1121,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1135,16 +1138,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1169,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D6">
-        <v>-0.2</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1186,16 +1189,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D7">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1203,16 +1206,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D8">
-        <v>-0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1223,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>-0.3999999999999999</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1240,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D10">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1257,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>-0.7</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1281,230 +1284,230 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>40.88</v>
+        <v>31.64</v>
       </c>
       <c r="C2">
-        <v>27.94</v>
+        <v>21.83</v>
       </c>
       <c r="D2">
-        <v>17.04</v>
+        <v>17.02</v>
       </c>
       <c r="E2">
-        <v>8.09</v>
+        <v>11.91</v>
       </c>
       <c r="F2">
-        <v>3.7</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="G2">
-        <v>1.53</v>
+        <v>5.13</v>
       </c>
       <c r="H2">
-        <v>0.54</v>
+        <v>2.98</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>1.36</v>
       </c>
       <c r="J2">
-        <v>0.06999999999999999</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="L2">
-        <v>99.17999999999999</v>
+        <v>94.88999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>24.87</v>
+        <v>21.08</v>
       </c>
       <c r="C3">
-        <v>24.42</v>
+        <v>19.8</v>
       </c>
       <c r="D3">
-        <v>19.92</v>
+        <v>16.22</v>
       </c>
       <c r="E3">
-        <v>13.14</v>
+        <v>13.65</v>
       </c>
       <c r="F3">
-        <v>8.870000000000001</v>
+        <v>10.65</v>
       </c>
       <c r="G3">
-        <v>4.65</v>
+        <v>7.95</v>
       </c>
       <c r="H3">
-        <v>2.49</v>
+        <v>5.28</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>3.46</v>
       </c>
       <c r="J3">
-        <v>0.5499999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="K3">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
-        <v>95.87000000000002</v>
+        <v>89.35000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>24.53</v>
+        <v>17.8</v>
       </c>
       <c r="C4">
-        <v>24.01</v>
+        <v>16.48</v>
       </c>
       <c r="D4">
-        <v>22.34</v>
+        <v>15.41</v>
       </c>
       <c r="E4">
-        <v>14.25</v>
+        <v>13.72</v>
       </c>
       <c r="F4">
-        <v>7.76</v>
+        <v>12.12</v>
       </c>
       <c r="G4">
-        <v>3.88</v>
+        <v>9.1</v>
       </c>
       <c r="H4">
-        <v>2.16</v>
+        <v>6.78</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>4.98</v>
       </c>
       <c r="J4">
-        <v>0.21</v>
+        <v>2.77</v>
       </c>
       <c r="K4">
-        <v>0.06999999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>96.77</v>
+        <v>84.63</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4.95</v>
+        <v>13.26</v>
       </c>
       <c r="C5">
-        <v>10.01</v>
+        <v>15.42</v>
       </c>
       <c r="D5">
-        <v>14.22</v>
+        <v>14.11</v>
       </c>
       <c r="E5">
-        <v>16.68</v>
+        <v>14.17</v>
       </c>
       <c r="F5">
-        <v>16.35</v>
+        <v>11.77</v>
       </c>
       <c r="G5">
-        <v>14.06</v>
+        <v>10.51</v>
       </c>
       <c r="H5">
-        <v>10.42</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="I5">
-        <v>6.81</v>
+        <v>6.48</v>
       </c>
       <c r="J5">
-        <v>4.390000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="K5">
-        <v>2.11</v>
+        <v>1.43</v>
       </c>
       <c r="L5">
-        <v>76.27</v>
+        <v>79.24000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2.38</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="C6">
-        <v>5.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="D6">
-        <v>9.9</v>
+        <v>11.66</v>
       </c>
       <c r="E6">
-        <v>14.84</v>
+        <v>12.63</v>
       </c>
       <c r="F6">
-        <v>15.12</v>
+        <v>12.11</v>
       </c>
       <c r="G6">
-        <v>15.63</v>
+        <v>12.97</v>
       </c>
       <c r="H6">
-        <v>13.06</v>
+        <v>11.57</v>
       </c>
       <c r="I6">
-        <v>10.81</v>
+        <v>10.58</v>
       </c>
       <c r="J6">
-        <v>7.48</v>
+        <v>8.01</v>
       </c>
       <c r="K6">
-        <v>4.88</v>
+        <v>3.48</v>
       </c>
       <c r="L6">
-        <v>63.77</v>
+        <v>66.36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1512,189 +1515,189 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.52</v>
+        <v>4.36</v>
       </c>
       <c r="C7">
-        <v>4.14</v>
+        <v>6.69</v>
       </c>
       <c r="D7">
-        <v>7.76</v>
+        <v>9.07</v>
       </c>
       <c r="E7">
-        <v>12.26</v>
+        <v>10.84</v>
       </c>
       <c r="F7">
-        <v>15.17</v>
+        <v>12.53</v>
       </c>
       <c r="G7">
-        <v>15.23</v>
+        <v>12.66</v>
       </c>
       <c r="H7">
-        <v>14.82</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>12.18</v>
+        <v>13.37</v>
       </c>
       <c r="J7">
-        <v>9.610000000000001</v>
+        <v>10.86</v>
       </c>
       <c r="K7">
-        <v>7.31</v>
+        <v>6.22</v>
       </c>
       <c r="L7">
-        <v>56.08</v>
+        <v>56.15</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.42</v>
+        <v>2.18</v>
       </c>
       <c r="C8">
-        <v>1.77</v>
+        <v>4.12</v>
       </c>
       <c r="D8">
-        <v>3.49</v>
+        <v>6.3</v>
       </c>
       <c r="E8">
-        <v>8.039999999999999</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="F8">
-        <v>11.37</v>
+        <v>11.22</v>
       </c>
       <c r="G8">
-        <v>13.82</v>
+        <v>12.52</v>
       </c>
       <c r="H8">
-        <v>14.68</v>
+        <v>15.03</v>
       </c>
       <c r="I8">
-        <v>15.84</v>
+        <v>14.82</v>
       </c>
       <c r="J8">
-        <v>16.09</v>
+        <v>15.2</v>
       </c>
       <c r="K8">
-        <v>14.48</v>
+        <v>10.65</v>
       </c>
       <c r="L8">
-        <v>38.91</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.29</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>0.35</v>
-      </c>
-      <c r="C9">
-        <v>1.19</v>
-      </c>
       <c r="D9">
-        <v>3.21</v>
+        <v>5.16</v>
       </c>
       <c r="E9">
-        <v>6.84</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F9">
-        <v>10.17</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="G9">
-        <v>13.07</v>
+        <v>12.34</v>
       </c>
       <c r="H9">
-        <v>15.29</v>
+        <v>14.91</v>
       </c>
       <c r="I9">
-        <v>16.68</v>
+        <v>16.63</v>
       </c>
       <c r="J9">
-        <v>16.76</v>
+        <v>17.27</v>
       </c>
       <c r="K9">
-        <v>16.44</v>
+        <v>12.61</v>
       </c>
       <c r="L9">
-        <v>34.83</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.06</v>
+        <v>1.27</v>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>2.55</v>
       </c>
       <c r="D10">
-        <v>1.29</v>
+        <v>4.74</v>
       </c>
       <c r="E10">
-        <v>3.32</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="F10">
-        <v>6.47</v>
+        <v>10.44</v>
       </c>
       <c r="G10">
-        <v>9.33</v>
+        <v>13.42</v>
       </c>
       <c r="H10">
-        <v>13.64</v>
+        <v>14.73</v>
       </c>
       <c r="I10">
-        <v>17.4</v>
+        <v>16.82</v>
       </c>
       <c r="J10">
-        <v>21.94</v>
+        <v>16.34</v>
       </c>
       <c r="K10">
-        <v>26.2</v>
+        <v>12.58</v>
       </c>
       <c r="L10">
-        <v>20.82</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="D11">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="E11">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="F11">
-        <v>5.02</v>
+        <v>2.01</v>
       </c>
       <c r="G11">
-        <v>8.799999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>12.9</v>
+        <v>6.54</v>
       </c>
       <c r="I11">
-        <v>18.34</v>
+        <v>11.5</v>
       </c>
       <c r="J11">
-        <v>22.9</v>
+        <v>23.22</v>
       </c>
       <c r="K11">
-        <v>28.36</v>
+        <v>51.77</v>
       </c>
       <c r="L11">
-        <v>17.5</v>
+        <v>6.970000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1712,16 +1715,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1729,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,16 +1749,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1763,16 +1766,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1780,16 +1783,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1797,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1817,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1831,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -1848,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1871,10 +1874,10 @@
         <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1882,16 +1885,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1901,15 +1904,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -1924,125 +1927,143 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>-6</v>
-      </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2061,57 +2082,66 @@
       <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-16</v>
+      </c>
+      <c r="F8">
+        <v>-12</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-6</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-4</v>
-      </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>-7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
       </c>
       <c r="E9">
         <v>-10</v>
       </c>
       <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9" t="s">
+        <v>-7</v>
+      </c>
+      <c r="G9">
+        <v>-10</v>
+      </c>
+      <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2130,31 +2160,37 @@
       <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>-11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>-13</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>-16</v>
-      </c>
-      <c r="F11">
-        <v>-12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="48">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -1325,37 +1325,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31.64</v>
+        <v>31.23</v>
       </c>
       <c r="C2">
-        <v>21.83</v>
+        <v>22.62</v>
       </c>
       <c r="D2">
-        <v>17.02</v>
+        <v>16.77</v>
       </c>
       <c r="E2">
-        <v>11.91</v>
+        <v>11.52</v>
       </c>
       <c r="F2">
-        <v>7.359999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="G2">
-        <v>5.13</v>
+        <v>4.78</v>
       </c>
       <c r="H2">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="I2">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="J2">
-        <v>0.7100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
-        <v>94.88999999999999</v>
+        <v>94.65000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1363,37 +1363,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>21.08</v>
+        <v>21.1</v>
       </c>
       <c r="C3">
-        <v>19.8</v>
+        <v>18.87</v>
       </c>
       <c r="D3">
-        <v>16.22</v>
+        <v>16.51</v>
       </c>
       <c r="E3">
-        <v>13.65</v>
+        <v>13.62</v>
       </c>
       <c r="F3">
-        <v>10.65</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>7.95</v>
+        <v>7.9</v>
       </c>
       <c r="H3">
-        <v>5.28</v>
+        <v>5.35</v>
       </c>
       <c r="I3">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="J3">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="K3">
-        <v>0.36</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L3">
-        <v>89.35000000000001</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1401,37 +1401,37 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>17.8</v>
+        <v>16.88</v>
       </c>
       <c r="C4">
-        <v>16.48</v>
+        <v>17.39</v>
       </c>
       <c r="D4">
-        <v>15.41</v>
+        <v>14.87</v>
       </c>
       <c r="E4">
-        <v>13.72</v>
+        <v>14.18</v>
       </c>
       <c r="F4">
-        <v>12.12</v>
+        <v>11.74</v>
       </c>
       <c r="G4">
-        <v>9.1</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H4">
-        <v>6.78</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="I4">
-        <v>4.98</v>
+        <v>5.09</v>
       </c>
       <c r="J4">
-        <v>2.77</v>
+        <v>2.97</v>
       </c>
       <c r="K4">
-        <v>0.84</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="L4">
-        <v>84.63</v>
+        <v>84.26999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1439,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>13.26</v>
+        <v>13.91</v>
       </c>
       <c r="C5">
-        <v>15.42</v>
+        <v>14.8</v>
       </c>
       <c r="D5">
-        <v>14.11</v>
+        <v>13.98</v>
       </c>
       <c r="E5">
-        <v>14.17</v>
+        <v>13.83</v>
       </c>
       <c r="F5">
-        <v>11.77</v>
+        <v>12.4</v>
       </c>
       <c r="G5">
-        <v>10.51</v>
+        <v>10.82</v>
       </c>
       <c r="H5">
-        <v>8.780000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="I5">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>4.07</v>
+        <v>3.88</v>
       </c>
       <c r="K5">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>79.24000000000001</v>
+        <v>79.74000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1477,37 +1477,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.090000000000001</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="C6">
-        <v>9.9</v>
+        <v>9.56</v>
       </c>
       <c r="D6">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="E6">
-        <v>12.63</v>
+        <v>11.95</v>
       </c>
       <c r="F6">
-        <v>12.11</v>
+        <v>13.09</v>
       </c>
       <c r="G6">
-        <v>12.97</v>
+        <v>12.22</v>
       </c>
       <c r="H6">
-        <v>11.57</v>
+        <v>11.72</v>
       </c>
       <c r="I6">
-        <v>10.58</v>
+        <v>10.9</v>
       </c>
       <c r="J6">
-        <v>8.01</v>
+        <v>7.77</v>
       </c>
       <c r="K6">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="L6">
-        <v>66.36</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1515,37 +1515,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4.36</v>
+        <v>3.99</v>
       </c>
       <c r="C7">
-        <v>6.69</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="D7">
-        <v>9.07</v>
+        <v>8.93</v>
       </c>
       <c r="E7">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="F7">
-        <v>12.53</v>
+        <v>11.52</v>
       </c>
       <c r="G7">
-        <v>12.66</v>
+        <v>13.48</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>13.97</v>
       </c>
       <c r="I7">
-        <v>13.37</v>
+        <v>12.97</v>
       </c>
       <c r="J7">
-        <v>10.86</v>
+        <v>11.26</v>
       </c>
       <c r="K7">
-        <v>6.22</v>
+        <v>6.27</v>
       </c>
       <c r="L7">
-        <v>56.15</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1553,37 +1553,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="C8">
-        <v>4.12</v>
+        <v>4.26</v>
       </c>
       <c r="D8">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>7.960000000000001</v>
+        <v>9.16</v>
       </c>
       <c r="F8">
-        <v>11.22</v>
+        <v>10.52</v>
       </c>
       <c r="G8">
-        <v>12.52</v>
+        <v>13.29</v>
       </c>
       <c r="H8">
-        <v>15.03</v>
+        <v>14.31</v>
       </c>
       <c r="I8">
-        <v>14.82</v>
+        <v>15.16</v>
       </c>
       <c r="J8">
-        <v>15.2</v>
+        <v>14.69</v>
       </c>
       <c r="K8">
-        <v>10.65</v>
+        <v>9.74</v>
       </c>
       <c r="L8">
-        <v>44.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1591,37 +1591,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="D9">
-        <v>5.16</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="E9">
-        <v>7.000000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="F9">
-        <v>9.790000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="G9">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="H9">
-        <v>14.91</v>
+        <v>14.63</v>
       </c>
       <c r="I9">
-        <v>16.63</v>
+        <v>16.34</v>
       </c>
       <c r="J9">
-        <v>17.27</v>
+        <v>16.54</v>
       </c>
       <c r="K9">
-        <v>12.61</v>
+        <v>12.91</v>
       </c>
       <c r="L9">
-        <v>38.58</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1629,37 +1629,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="C10">
-        <v>2.55</v>
+        <v>2.99</v>
       </c>
       <c r="D10">
-        <v>4.74</v>
+        <v>5.21</v>
       </c>
       <c r="E10">
-        <v>7.109999999999999</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="F10">
-        <v>10.44</v>
+        <v>10.01</v>
       </c>
       <c r="G10">
-        <v>13.42</v>
+        <v>12.32</v>
       </c>
       <c r="H10">
-        <v>14.73</v>
+        <v>15.15</v>
       </c>
       <c r="I10">
+        <v>16.42</v>
+      </c>
+      <c r="J10">
         <v>16.82</v>
       </c>
-      <c r="J10">
-        <v>16.34</v>
-      </c>
       <c r="K10">
-        <v>12.58</v>
+        <v>13.48</v>
       </c>
       <c r="L10">
-        <v>39.53</v>
+        <v>38.13</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1670,34 +1670,34 @@
         <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="D11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="H11">
-        <v>6.54</v>
+        <v>6.36</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>11.84</v>
       </c>
       <c r="J11">
-        <v>23.22</v>
+        <v>23.65</v>
       </c>
       <c r="K11">
-        <v>51.77</v>
+        <v>51.34999999999999</v>
       </c>
       <c r="L11">
-        <v>6.970000000000001</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -1904,292 +1904,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>11</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>-2</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>-6</v>
       </c>
       <c r="C5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E8">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="F8">
-        <v>-12</v>
-      </c>
-      <c r="G8">
         <v>-6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>-6</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
         <v>-10</v>
       </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>-10</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
+      <c r="B10">
+        <v>-4</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
         <v>-11</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
       </c>
       <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G10">
-        <v>-11</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="B11">
+        <v>-4</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E11">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="51">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -51,22 +51,25 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -126,30 +129,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -572,19 +581,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -601,31 +610,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -639,25 +648,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -674,28 +683,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -703,34 +712,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -738,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -747,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -765,7 +774,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -773,34 +782,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -808,34 +817,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -843,34 +852,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -878,34 +887,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -923,13 +932,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -940,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -954,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -965,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -979,10 +988,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -993,10 +1002,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1007,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1021,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1035,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1049,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1063,13 +1072,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1087,16 +1096,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1107,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D2">
-        <v>-0.6000000000000001</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1124,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1138,13 +1147,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>0.1000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1155,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1172,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>-0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1189,16 +1198,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>1.4</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1209,13 +1218,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1223,16 +1232,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>-0.8999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1240,16 +1249,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1260,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
-        <v>-0.6000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1284,40 +1293,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1325,37 +1334,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31.23</v>
+        <v>53.53</v>
       </c>
       <c r="C2">
-        <v>22.62</v>
+        <v>22.58</v>
       </c>
       <c r="D2">
-        <v>16.77</v>
+        <v>11.19</v>
       </c>
       <c r="E2">
-        <v>11.52</v>
+        <v>6.78</v>
       </c>
       <c r="F2">
-        <v>7.73</v>
+        <v>3.17</v>
       </c>
       <c r="G2">
-        <v>4.78</v>
+        <v>1.59</v>
       </c>
       <c r="H2">
-        <v>3.11</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>1.46</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="K2">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>94.65000000000001</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1363,113 +1372,113 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>21.1</v>
+        <v>12.78</v>
       </c>
       <c r="C3">
-        <v>18.87</v>
+        <v>16.83</v>
       </c>
       <c r="D3">
-        <v>16.51</v>
+        <v>16.87</v>
       </c>
       <c r="E3">
-        <v>13.62</v>
+        <v>16.15</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>13.56</v>
       </c>
       <c r="G3">
-        <v>7.9</v>
+        <v>10.62</v>
       </c>
       <c r="H3">
-        <v>5.35</v>
+        <v>6.58</v>
       </c>
       <c r="I3">
-        <v>3.32</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="J3">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="K3">
-        <v>0.5599999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86.81</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>16.88</v>
+        <v>11.95</v>
       </c>
       <c r="C4">
-        <v>17.39</v>
+        <v>16.47</v>
       </c>
       <c r="D4">
-        <v>14.87</v>
+        <v>17.4</v>
       </c>
       <c r="E4">
-        <v>14.18</v>
+        <v>15.44</v>
       </c>
       <c r="F4">
-        <v>11.74</v>
+        <v>13.18</v>
       </c>
       <c r="G4">
-        <v>9.210000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H4">
-        <v>6.819999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="I4">
-        <v>5.09</v>
+        <v>4.569999999999999</v>
       </c>
       <c r="J4">
-        <v>2.97</v>
+        <v>2.48</v>
       </c>
       <c r="K4">
-        <v>0.8500000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L4">
-        <v>84.26999999999998</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>13.91</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C5">
-        <v>14.8</v>
+        <v>14.97</v>
       </c>
       <c r="D5">
-        <v>13.98</v>
+        <v>16.05</v>
       </c>
       <c r="E5">
-        <v>13.83</v>
+        <v>15.41</v>
       </c>
       <c r="F5">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <v>10.82</v>
+        <v>12.15</v>
       </c>
       <c r="H5">
-        <v>8.58</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>6.22</v>
       </c>
       <c r="J5">
-        <v>3.88</v>
+        <v>3.3</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="L5">
-        <v>79.74000000000001</v>
+        <v>81.37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1477,37 +1486,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.960000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="C6">
-        <v>9.56</v>
+        <v>14.35</v>
       </c>
       <c r="D6">
-        <v>11.42</v>
+        <v>14.98</v>
       </c>
       <c r="E6">
-        <v>11.95</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>13.09</v>
+        <v>14.26</v>
       </c>
       <c r="G6">
-        <v>12.22</v>
+        <v>11.41</v>
       </c>
       <c r="H6">
-        <v>11.72</v>
+        <v>9.74</v>
       </c>
       <c r="I6">
-        <v>10.9</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="J6">
-        <v>7.77</v>
+        <v>4.72</v>
       </c>
       <c r="K6">
-        <v>3.41</v>
+        <v>1.79</v>
       </c>
       <c r="L6">
-        <v>66.2</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1515,151 +1524,151 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3.99</v>
+        <v>2.78</v>
       </c>
       <c r="C7">
-        <v>6.800000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="D7">
-        <v>8.93</v>
+        <v>10.07</v>
       </c>
       <c r="E7">
-        <v>10.81</v>
+        <v>11.7</v>
       </c>
       <c r="F7">
-        <v>11.52</v>
+        <v>13.01</v>
       </c>
       <c r="G7">
-        <v>13.48</v>
+        <v>13.67</v>
       </c>
       <c r="H7">
-        <v>13.97</v>
+        <v>14.09</v>
       </c>
       <c r="I7">
-        <v>12.97</v>
+        <v>12.57</v>
       </c>
       <c r="J7">
-        <v>11.26</v>
+        <v>9.77</v>
       </c>
       <c r="K7">
-        <v>6.27</v>
+        <v>4.7</v>
       </c>
       <c r="L7">
-        <v>55.53</v>
+        <v>58.87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>2.37</v>
+        <v>1.1</v>
       </c>
       <c r="C8">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>6.27</v>
       </c>
       <c r="E8">
-        <v>9.16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>10.52</v>
+        <v>10.81</v>
       </c>
       <c r="G8">
-        <v>13.29</v>
+        <v>12.96</v>
       </c>
       <c r="H8">
-        <v>14.31</v>
+        <v>15.5</v>
       </c>
       <c r="I8">
+        <v>16.47</v>
+      </c>
+      <c r="J8">
         <v>15.16</v>
       </c>
-      <c r="J8">
-        <v>14.69</v>
-      </c>
       <c r="K8">
-        <v>9.74</v>
+        <v>9.93</v>
       </c>
       <c r="L8">
-        <v>46.1</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1.44</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="D9">
-        <v>5.510000000000001</v>
+        <v>4.52</v>
       </c>
       <c r="E9">
-        <v>7.62</v>
+        <v>7.16</v>
       </c>
       <c r="F9">
-        <v>9.92</v>
+        <v>10.26</v>
       </c>
       <c r="G9">
-        <v>12.47</v>
+        <v>13.19</v>
       </c>
       <c r="H9">
-        <v>14.63</v>
+        <v>15.6</v>
       </c>
       <c r="I9">
-        <v>16.34</v>
+        <v>16.93</v>
       </c>
       <c r="J9">
-        <v>16.54</v>
+        <v>16.81</v>
       </c>
       <c r="K9">
-        <v>12.91</v>
+        <v>12.37</v>
       </c>
       <c r="L9">
-        <v>39.58</v>
+        <v>38.29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1.09</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
-        <v>2.99</v>
+        <v>1.17</v>
       </c>
       <c r="D10">
-        <v>5.21</v>
+        <v>2.42</v>
       </c>
       <c r="E10">
-        <v>6.510000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="F10">
-        <v>10.01</v>
+        <v>6.77</v>
       </c>
       <c r="G10">
-        <v>12.32</v>
+        <v>10.79</v>
       </c>
       <c r="H10">
-        <v>15.15</v>
+        <v>15.16</v>
       </c>
       <c r="I10">
-        <v>16.42</v>
+        <v>18.51</v>
       </c>
       <c r="J10">
-        <v>16.82</v>
+        <v>20.99</v>
       </c>
       <c r="K10">
-        <v>13.48</v>
+        <v>19.55</v>
       </c>
       <c r="L10">
-        <v>38.13</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1667,37 +1676,37 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="F11">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="G11">
-        <v>3.51</v>
+        <v>3.12</v>
       </c>
       <c r="H11">
-        <v>6.36</v>
+        <v>7.06</v>
       </c>
       <c r="I11">
-        <v>11.84</v>
+        <v>12.97</v>
       </c>
       <c r="J11">
-        <v>23.65</v>
+        <v>24.95</v>
       </c>
       <c r="K11">
-        <v>51.34999999999999</v>
+        <v>49.47</v>
       </c>
       <c r="L11">
-        <v>6.8</v>
+        <v>5.549999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1715,16 +1724,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1732,16 +1741,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1749,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1758,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1766,16 +1775,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1786,13 +1795,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1800,16 +1809,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1817,16 +1826,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1834,16 +1843,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1851,16 +1860,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1871,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1888,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1904,102 +1913,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2018,103 +2039,118 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>-10</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-10</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-16</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-12</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-6</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2133,11 +2169,14 @@
       <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="F11">
         <v>-13</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
+      <c r="G11">
+        <v>-22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="51">
-  <si>
-    <t>Stiff Armed and Dangerous</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+  <si>
+    <t>Kelce You Again!</t>
   </si>
   <si>
     <t>Team CTE</t>
@@ -33,10 +33,10 @@
     <t>Wakanda Forever</t>
   </si>
   <si>
-    <t>The Chase Is On</t>
-  </si>
-  <si>
-    <t>2 Many Cooks</t>
+    <t>Run CMC</t>
+  </si>
+  <si>
+    <t>Amon a Mission</t>
   </si>
   <si>
     <t>Pain Inflictors</t>
@@ -51,25 +51,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -129,33 +132,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -578,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -613,28 +616,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +651,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -677,34 +680,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -718,28 +721,28 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -747,34 +750,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -788,28 +791,28 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -817,22 +820,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -841,10 +844,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -852,31 +855,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -890,16 +893,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -908,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -932,13 +935,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -963,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -977,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -991,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1005,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1030,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1044,13 +1047,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1058,13 +1061,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1072,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1096,16 +1099,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1116,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="D2">
-        <v>-0.5999999999999996</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1130,13 +1133,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1147,13 +1150,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1164,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1184,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1198,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1215,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0.7999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1232,16 +1235,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1252,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>-0.8999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1293,40 +1296,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1334,37 +1337,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>53.53</v>
+        <v>56.67</v>
       </c>
       <c r="C2">
-        <v>22.58</v>
+        <v>22.54</v>
       </c>
       <c r="D2">
-        <v>11.19</v>
+        <v>10.83</v>
       </c>
       <c r="E2">
-        <v>6.78</v>
+        <v>5.46</v>
       </c>
       <c r="F2">
-        <v>3.17</v>
+        <v>2.86</v>
       </c>
       <c r="G2">
-        <v>1.59</v>
+        <v>1.07</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="I2">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="J2">
         <v>0.03</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>98.84</v>
+        <v>99.42999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1372,113 +1375,113 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12.78</v>
+        <v>12.17</v>
       </c>
       <c r="C3">
-        <v>16.83</v>
+        <v>19.82</v>
       </c>
       <c r="D3">
-        <v>16.87</v>
+        <v>18.83</v>
       </c>
       <c r="E3">
-        <v>16.15</v>
+        <v>16.25</v>
       </c>
       <c r="F3">
-        <v>13.56</v>
+        <v>12.16</v>
       </c>
       <c r="G3">
-        <v>10.62</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="H3">
-        <v>6.58</v>
+        <v>5.91</v>
       </c>
       <c r="I3">
-        <v>4.279999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="K3">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="L3">
-        <v>86.81</v>
+        <v>88.36999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>11.95</v>
+        <v>11.3</v>
       </c>
       <c r="C4">
-        <v>16.47</v>
+        <v>16.14</v>
       </c>
       <c r="D4">
-        <v>17.4</v>
+        <v>17.74</v>
       </c>
       <c r="E4">
-        <v>15.44</v>
+        <v>16.76</v>
       </c>
       <c r="F4">
-        <v>13.18</v>
+        <v>14.15</v>
       </c>
       <c r="G4">
-        <v>10.5</v>
+        <v>10.64</v>
       </c>
       <c r="H4">
-        <v>7.35</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="I4">
-        <v>4.569999999999999</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="J4">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="K4">
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
       <c r="L4">
-        <v>84.94</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>9.289999999999999</v>
+        <v>10.46</v>
       </c>
       <c r="C5">
-        <v>14.97</v>
+        <v>16.91</v>
       </c>
       <c r="D5">
-        <v>16.05</v>
+        <v>17.46</v>
       </c>
       <c r="E5">
-        <v>15.41</v>
+        <v>15.2</v>
       </c>
       <c r="F5">
-        <v>13.5</v>
+        <v>13.55</v>
       </c>
       <c r="G5">
-        <v>12.15</v>
+        <v>10.45</v>
       </c>
       <c r="H5">
-        <v>8.119999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="I5">
-        <v>6.22</v>
+        <v>5.27</v>
       </c>
       <c r="J5">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K5">
-        <v>0.9900000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="L5">
-        <v>81.37</v>
+        <v>84.03</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1486,37 +1489,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.6</v>
+        <v>5.66</v>
       </c>
       <c r="C6">
-        <v>14.35</v>
+        <v>11.76</v>
       </c>
       <c r="D6">
-        <v>14.98</v>
+        <v>14.18</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>14.97</v>
       </c>
       <c r="F6">
-        <v>14.26</v>
+        <v>14.73</v>
       </c>
       <c r="G6">
-        <v>11.41</v>
+        <v>13.25</v>
       </c>
       <c r="H6">
-        <v>9.74</v>
+        <v>10.97</v>
       </c>
       <c r="I6">
-        <v>7.149999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="J6">
-        <v>4.72</v>
+        <v>4.84</v>
       </c>
       <c r="K6">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="L6">
-        <v>76.59999999999999</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1524,37 +1527,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.78</v>
+        <v>1.69</v>
       </c>
       <c r="C7">
-        <v>7.64</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="D7">
-        <v>10.07</v>
+        <v>8.18</v>
       </c>
       <c r="E7">
-        <v>11.7</v>
+        <v>10.55</v>
       </c>
       <c r="F7">
-        <v>13.01</v>
+        <v>12.93</v>
       </c>
       <c r="G7">
-        <v>13.67</v>
+        <v>14.81</v>
       </c>
       <c r="H7">
-        <v>14.09</v>
+        <v>15.7</v>
       </c>
       <c r="I7">
-        <v>12.57</v>
+        <v>14.75</v>
       </c>
       <c r="J7">
-        <v>9.77</v>
+        <v>11.84</v>
       </c>
       <c r="K7">
-        <v>4.7</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="L7">
-        <v>58.87</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1562,37 +1565,37 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.89</v>
       </c>
       <c r="D8">
-        <v>6.27</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="E8">
-        <v>8.300000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="F8">
-        <v>10.81</v>
+        <v>13.03</v>
       </c>
       <c r="G8">
-        <v>12.96</v>
+        <v>15.27</v>
       </c>
       <c r="H8">
-        <v>15.5</v>
+        <v>15.47</v>
       </c>
       <c r="I8">
-        <v>16.47</v>
+        <v>14.62</v>
       </c>
       <c r="J8">
-        <v>15.16</v>
+        <v>11.92</v>
       </c>
       <c r="K8">
-        <v>9.93</v>
+        <v>5.13</v>
       </c>
       <c r="L8">
-        <v>42.94</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1600,37 +1603,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="C9">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="D9">
-        <v>4.52</v>
+        <v>3.53</v>
       </c>
       <c r="E9">
-        <v>7.16</v>
+        <v>5.83</v>
       </c>
       <c r="F9">
-        <v>10.26</v>
+        <v>9.24</v>
       </c>
       <c r="G9">
-        <v>13.19</v>
+        <v>12.83</v>
       </c>
       <c r="H9">
-        <v>15.6</v>
+        <v>16.54</v>
       </c>
       <c r="I9">
-        <v>16.93</v>
+        <v>18.68</v>
       </c>
       <c r="J9">
-        <v>16.81</v>
+        <v>19.09</v>
       </c>
       <c r="K9">
-        <v>12.37</v>
+        <v>12.05</v>
       </c>
       <c r="L9">
-        <v>38.29</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1638,37 +1641,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="C10">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="D10">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="E10">
-        <v>4.399999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="F10">
-        <v>6.77</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="G10">
-        <v>10.79</v>
+        <v>10.55</v>
       </c>
       <c r="H10">
-        <v>15.16</v>
+        <v>15.66</v>
       </c>
       <c r="I10">
-        <v>18.51</v>
+        <v>20.57</v>
       </c>
       <c r="J10">
-        <v>20.99</v>
+        <v>23.24</v>
       </c>
       <c r="K10">
-        <v>19.55</v>
+        <v>16.7</v>
       </c>
       <c r="L10">
-        <v>25.79</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1676,37 +1679,37 @@
         <v>1</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.01</v>
       </c>
-      <c r="C11">
-        <v>0.05</v>
-      </c>
       <c r="D11">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="F11">
-        <v>1.48</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G11">
-        <v>3.12</v>
+        <v>1.99</v>
       </c>
       <c r="H11">
-        <v>7.06</v>
+        <v>4.56</v>
       </c>
       <c r="I11">
-        <v>12.97</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="J11">
-        <v>24.95</v>
+        <v>23.06</v>
       </c>
       <c r="K11">
-        <v>49.47</v>
+        <v>59.18</v>
       </c>
       <c r="L11">
-        <v>5.549999999999999</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1727,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1744,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1761,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1775,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1792,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1812,13 +1815,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1826,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1846,13 +1849,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1863,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -1880,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1897,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -1913,13 +1916,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1939,10 +1942,13 @@
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,11 +1970,14 @@
       <c r="G2">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1990,63 +1999,72 @@
       <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-1</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
-        <v>-5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2068,37 +2086,43 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2120,11 +2144,14 @@
       <c r="G8">
         <v>-5</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>-4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2146,11 +2173,14 @@
       <c r="G9">
         <v>-6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2172,11 +2202,14 @@
       <c r="G10">
         <v>-16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>-24</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2231,10 @@
       <c r="G11">
         <v>-22</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>-28</v>
+      </c>
+      <c r="I11" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -126,12 +127,45 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Heba I</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
@@ -175,6 +209,27 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1337,28 +1392,28 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>56.67</v>
+        <v>55.81</v>
       </c>
       <c r="C2">
-        <v>22.54</v>
+        <v>22.99</v>
       </c>
       <c r="D2">
-        <v>10.83</v>
+        <v>11.19</v>
       </c>
       <c r="E2">
-        <v>5.46</v>
+        <v>5.72</v>
       </c>
       <c r="F2">
-        <v>2.86</v>
+        <v>2.41</v>
       </c>
       <c r="G2">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="H2">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="I2">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J2">
         <v>0.03</v>
@@ -1367,7 +1422,7 @@
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.42999999999999</v>
+        <v>99.25999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1375,37 +1430,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12.17</v>
+        <v>13.25</v>
       </c>
       <c r="C3">
-        <v>19.82</v>
+        <v>19.42</v>
       </c>
       <c r="D3">
-        <v>18.83</v>
+        <v>18.29</v>
       </c>
       <c r="E3">
-        <v>16.25</v>
+        <v>15.68</v>
       </c>
       <c r="F3">
-        <v>12.16</v>
+        <v>11.98</v>
       </c>
       <c r="G3">
-        <v>9.139999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H3">
-        <v>5.91</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="J3">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K3">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="L3">
-        <v>88.36999999999999</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1413,37 +1468,37 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>11.3</v>
+        <v>10.87</v>
       </c>
       <c r="C4">
-        <v>16.14</v>
+        <v>15.52</v>
       </c>
       <c r="D4">
-        <v>17.74</v>
+        <v>18.14</v>
       </c>
       <c r="E4">
-        <v>16.76</v>
+        <v>16.79</v>
       </c>
       <c r="F4">
-        <v>14.15</v>
+        <v>14.68</v>
       </c>
       <c r="G4">
-        <v>10.64</v>
+        <v>10.39</v>
       </c>
       <c r="H4">
-        <v>7.290000000000001</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="I4">
-        <v>4.100000000000001</v>
+        <v>4.18</v>
       </c>
       <c r="J4">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K4">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="L4">
-        <v>86.73</v>
+        <v>86.39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1451,37 +1506,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10.46</v>
+        <v>10.34</v>
       </c>
       <c r="C5">
-        <v>16.91</v>
+        <v>16.94</v>
       </c>
       <c r="D5">
-        <v>17.46</v>
+        <v>16.83</v>
       </c>
       <c r="E5">
-        <v>15.2</v>
+        <v>15.77</v>
       </c>
       <c r="F5">
-        <v>13.55</v>
+        <v>13.15</v>
       </c>
       <c r="G5">
-        <v>10.45</v>
+        <v>10.65</v>
       </c>
       <c r="H5">
-        <v>7.51</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="I5">
-        <v>5.27</v>
+        <v>5.12</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="K5">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="L5">
-        <v>84.03</v>
+        <v>83.68000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1489,37 +1544,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5.66</v>
+        <v>5.680000000000001</v>
       </c>
       <c r="C6">
-        <v>11.76</v>
+        <v>12.35</v>
       </c>
       <c r="D6">
-        <v>14.18</v>
+        <v>14.2</v>
       </c>
       <c r="E6">
-        <v>14.97</v>
+        <v>14.62</v>
       </c>
       <c r="F6">
-        <v>14.73</v>
+        <v>14.4</v>
       </c>
       <c r="G6">
-        <v>13.25</v>
+        <v>12.92</v>
       </c>
       <c r="H6">
-        <v>10.97</v>
+        <v>11.39</v>
       </c>
       <c r="I6">
-        <v>8.32</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="J6">
-        <v>4.84</v>
+        <v>4.94</v>
       </c>
       <c r="K6">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="L6">
-        <v>74.55</v>
+        <v>74.17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1527,37 +1582,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="C7">
-        <v>5.149999999999999</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="D7">
-        <v>8.18</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E7">
-        <v>10.55</v>
+        <v>10.46</v>
       </c>
       <c r="F7">
-        <v>12.93</v>
+        <v>13.12</v>
       </c>
       <c r="G7">
-        <v>14.81</v>
+        <v>14.85</v>
       </c>
       <c r="H7">
-        <v>15.7</v>
+        <v>15.69</v>
       </c>
       <c r="I7">
-        <v>14.75</v>
+        <v>14.2</v>
       </c>
       <c r="J7">
-        <v>11.84</v>
+        <v>11.67</v>
       </c>
       <c r="K7">
-        <v>4.399999999999999</v>
+        <v>4.69</v>
       </c>
       <c r="L7">
-        <v>53.31</v>
+        <v>53.75000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1565,37 +1620,37 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="C8">
-        <v>4.89</v>
+        <v>5.02</v>
       </c>
       <c r="D8">
-        <v>7.290000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="E8">
-        <v>10.85</v>
+        <v>10.69</v>
       </c>
       <c r="F8">
-        <v>13.03</v>
+        <v>13.27</v>
       </c>
       <c r="G8">
-        <v>15.27</v>
+        <v>15.19</v>
       </c>
       <c r="H8">
-        <v>15.47</v>
+        <v>14.93</v>
       </c>
       <c r="I8">
-        <v>14.62</v>
+        <v>14.74</v>
       </c>
       <c r="J8">
-        <v>11.92</v>
+        <v>12.09</v>
       </c>
       <c r="K8">
         <v>5.13</v>
       </c>
       <c r="L8">
-        <v>52.86</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1603,37 +1658,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="D9">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="E9">
-        <v>5.83</v>
+        <v>6.03</v>
       </c>
       <c r="F9">
-        <v>9.24</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="G9">
-        <v>12.83</v>
+        <v>12.6</v>
       </c>
       <c r="H9">
-        <v>16.54</v>
+        <v>16.17</v>
       </c>
       <c r="I9">
-        <v>18.68</v>
+        <v>19.57</v>
       </c>
       <c r="J9">
-        <v>19.09</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>12.05</v>
+        <v>11.59</v>
       </c>
       <c r="L9">
-        <v>33.64</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1641,37 +1696,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C10">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
         <v>1.92</v>
       </c>
       <c r="E10">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="F10">
-        <v>6.529999999999999</v>
+        <v>7.06</v>
       </c>
       <c r="G10">
-        <v>10.55</v>
+        <v>10.9</v>
       </c>
       <c r="H10">
-        <v>15.66</v>
+        <v>14.96</v>
       </c>
       <c r="I10">
-        <v>20.57</v>
+        <v>20.37</v>
       </c>
       <c r="J10">
-        <v>23.24</v>
+        <v>23.19</v>
       </c>
       <c r="K10">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="L10">
-        <v>23.83</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1685,31 +1740,31 @@
         <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="F11">
-        <v>0.8200000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G11">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="H11">
-        <v>4.56</v>
+        <v>4.78</v>
       </c>
       <c r="I11">
-        <v>9.950000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="J11">
-        <v>23.06</v>
+        <v>22.98</v>
       </c>
       <c r="K11">
-        <v>59.18</v>
+        <v>59.38</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>2.93</v>
       </c>
     </row>
   </sheetData>
@@ -1719,13 +1774,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1733,180 +1788,213 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
         <v>-4</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>-7</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
         <v>-24</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
         <v>-28</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1924,28 +2012,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1974,7 +2062,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2003,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2032,7 +2120,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2061,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2090,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2119,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2148,7 +2236,7 @@
         <v>-4</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2177,7 +2265,7 @@
         <v>-7</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2206,7 +2294,7 @@
         <v>-24</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2235,7 +2323,277 @@
         <v>-28</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>-13</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>-6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>-24</v>
+      </c>
+      <c r="F8">
+        <v>-28</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="72">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,28 +52,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,21 +139,21 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
     <t>Heba I</t>
   </si>
   <si>
@@ -160,34 +163,34 @@
     <t>Saurin Sethia</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -648,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -668,31 +674,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -703,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -712,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -727,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -762,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -770,34 +776,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -805,34 +811,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,34 +846,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -878,31 +884,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -910,34 +916,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -990,13 +996,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1021,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1035,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1049,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1060,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,13 +1080,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1102,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1119,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1133,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1154,16 +1160,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1174,10 +1180,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D2">
-        <v>-0.7000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1188,16 +1194,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,16 +1211,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,16 +1228,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>-0.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>1.7</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1256,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1273,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1293,10 +1299,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1310,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1327,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1351,40 +1357,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1392,37 +1398,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55.81</v>
+        <v>44.03</v>
       </c>
       <c r="C2">
-        <v>22.99</v>
+        <v>28.42</v>
       </c>
       <c r="D2">
-        <v>11.19</v>
+        <v>14.61</v>
       </c>
       <c r="E2">
-        <v>5.72</v>
+        <v>7.04</v>
       </c>
       <c r="F2">
-        <v>2.41</v>
+        <v>3.55</v>
       </c>
       <c r="G2">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="K2">
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.25999999999999</v>
+        <v>99.15000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1430,37 +1436,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>13.25</v>
+        <v>30.35</v>
       </c>
       <c r="C3">
-        <v>19.42</v>
+        <v>24.83</v>
       </c>
       <c r="D3">
-        <v>18.29</v>
+        <v>18.52</v>
       </c>
       <c r="E3">
-        <v>15.68</v>
+        <v>12.03</v>
       </c>
       <c r="F3">
-        <v>11.98</v>
+        <v>6.81</v>
       </c>
       <c r="G3">
-        <v>9.539999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="H3">
-        <v>6.329999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="I3">
-        <v>3.62</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="J3">
-        <v>1.62</v>
+        <v>0.32</v>
       </c>
       <c r="K3">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L3">
-        <v>88.16</v>
+        <v>96.39999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1468,37 +1474,37 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10.87</v>
+        <v>13.02</v>
       </c>
       <c r="C4">
-        <v>15.52</v>
+        <v>18.47</v>
       </c>
       <c r="D4">
-        <v>18.14</v>
+        <v>18.54</v>
       </c>
       <c r="E4">
-        <v>16.79</v>
+        <v>15.82</v>
       </c>
       <c r="F4">
-        <v>14.68</v>
+        <v>12.46</v>
       </c>
       <c r="G4">
-        <v>10.39</v>
+        <v>9.24</v>
       </c>
       <c r="H4">
-        <v>7.249999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="I4">
-        <v>4.18</v>
+        <v>3.87</v>
       </c>
       <c r="J4">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="K4">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="L4">
-        <v>86.39</v>
+        <v>87.55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1506,189 +1512,189 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10.34</v>
+        <v>5.88</v>
       </c>
       <c r="C5">
-        <v>16.94</v>
+        <v>10.5</v>
       </c>
       <c r="D5">
-        <v>16.83</v>
+        <v>13.91</v>
       </c>
       <c r="E5">
-        <v>15.77</v>
+        <v>16.27</v>
       </c>
       <c r="F5">
-        <v>13.15</v>
+        <v>14.61</v>
       </c>
       <c r="G5">
-        <v>10.65</v>
+        <v>13.46</v>
       </c>
       <c r="H5">
-        <v>7.960000000000001</v>
+        <v>10.76</v>
       </c>
       <c r="I5">
-        <v>5.12</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="J5">
-        <v>2.61</v>
+        <v>4.98</v>
       </c>
       <c r="K5">
-        <v>0.63</v>
+        <v>1.16</v>
       </c>
       <c r="L5">
-        <v>83.68000000000001</v>
+        <v>74.63</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5.680000000000001</v>
+        <v>2.45</v>
       </c>
       <c r="C6">
-        <v>12.35</v>
+        <v>5.46</v>
       </c>
       <c r="D6">
-        <v>14.2</v>
+        <v>10.33</v>
       </c>
       <c r="E6">
-        <v>14.62</v>
+        <v>12.47</v>
       </c>
       <c r="F6">
-        <v>14.4</v>
+        <v>14.16</v>
       </c>
       <c r="G6">
-        <v>12.92</v>
+        <v>14.57</v>
       </c>
       <c r="H6">
-        <v>11.39</v>
+        <v>14.41</v>
       </c>
       <c r="I6">
-        <v>8.110000000000001</v>
+        <v>13.27</v>
       </c>
       <c r="J6">
-        <v>4.94</v>
+        <v>9.6</v>
       </c>
       <c r="K6">
-        <v>1.39</v>
+        <v>3.28</v>
       </c>
       <c r="L6">
-        <v>74.17</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="C7">
-        <v>5.220000000000001</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="D7">
-        <v>8.050000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E7">
-        <v>10.46</v>
+        <v>11.6</v>
       </c>
       <c r="F7">
-        <v>13.12</v>
+        <v>14.78</v>
       </c>
       <c r="G7">
-        <v>14.85</v>
+        <v>14.53</v>
       </c>
       <c r="H7">
-        <v>15.69</v>
+        <v>14.03</v>
       </c>
       <c r="I7">
-        <v>14.2</v>
+        <v>13.59</v>
       </c>
       <c r="J7">
-        <v>11.67</v>
+        <v>10.78</v>
       </c>
       <c r="K7">
-        <v>4.69</v>
+        <v>4.19</v>
       </c>
       <c r="L7">
-        <v>53.75000000000001</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="C8">
-        <v>5.02</v>
+        <v>3.52</v>
       </c>
       <c r="D8">
-        <v>7.64</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="E8">
-        <v>10.69</v>
+        <v>10.39</v>
       </c>
       <c r="F8">
-        <v>13.27</v>
+        <v>12.65</v>
       </c>
       <c r="G8">
-        <v>15.19</v>
+        <v>15.21</v>
       </c>
       <c r="H8">
-        <v>14.93</v>
+        <v>16.13</v>
       </c>
       <c r="I8">
-        <v>14.74</v>
+        <v>15.28</v>
       </c>
       <c r="J8">
-        <v>12.09</v>
+        <v>12.42</v>
       </c>
       <c r="K8">
-        <v>5.13</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="L8">
-        <v>53.11</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="C9">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="D9">
-        <v>3.65</v>
+        <v>6.23</v>
       </c>
       <c r="E9">
-        <v>6.03</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F9">
-        <v>9.139999999999999</v>
+        <v>12.44</v>
       </c>
       <c r="G9">
-        <v>12.6</v>
+        <v>14.81</v>
       </c>
       <c r="H9">
-        <v>16.17</v>
+        <v>16.02</v>
       </c>
       <c r="I9">
-        <v>19.57</v>
+        <v>15.91</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>14.42</v>
       </c>
       <c r="K9">
-        <v>11.59</v>
+        <v>6.69</v>
       </c>
       <c r="L9">
-        <v>33.67</v>
+        <v>46.96</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1699,34 +1705,34 @@
         <v>0.18</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="D10">
         <v>1.92</v>
       </c>
       <c r="E10">
-        <v>4.02</v>
+        <v>4.22</v>
       </c>
       <c r="F10">
-        <v>7.06</v>
+        <v>7.7</v>
       </c>
       <c r="G10">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="H10">
-        <v>14.96</v>
+        <v>15.16</v>
       </c>
       <c r="I10">
-        <v>20.37</v>
+        <v>18.62</v>
       </c>
       <c r="J10">
-        <v>23.19</v>
+        <v>22.74</v>
       </c>
       <c r="K10">
-        <v>16.6</v>
+        <v>17.69</v>
       </c>
       <c r="L10">
-        <v>24.88</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1737,34 +1743,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="F11">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="G11">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H11">
-        <v>4.78</v>
+        <v>4.05</v>
       </c>
       <c r="I11">
-        <v>9.93</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J11">
-        <v>22.98</v>
+        <v>23.03</v>
       </c>
       <c r="K11">
-        <v>59.38</v>
+        <v>59.91</v>
       </c>
       <c r="L11">
-        <v>2.93</v>
+        <v>3.12</v>
       </c>
     </row>
   </sheetData>
@@ -1782,19 +1788,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1802,19 +1808,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1822,19 +1828,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1845,16 +1851,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1862,19 +1868,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1882,19 +1888,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1905,16 +1911,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1925,16 +1931,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1945,16 +1951,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1962,19 +1968,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>-24</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1982,19 +1988,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>-28</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2004,97 +2010,106 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2119,69 +2134,78 @@
       <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2206,11 +2230,14 @@
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2235,11 +2262,14 @@
       <c r="H8">
         <v>-4</v>
       </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2264,66 +2294,75 @@
       <c r="H9">
         <v>-7</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-4</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="H10">
+        <v>-28</v>
+      </c>
+      <c r="I10">
         <v>-24</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>-4</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G11">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="H11">
+        <v>-24</v>
+      </c>
+      <c r="I11">
         <v>-28</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="J11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2372,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2341,25 +2380,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2367,25 +2406,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2393,25 +2432,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>-13</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2419,25 +2458,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2448,22 +2487,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2471,25 +2510,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>-7</v>
       </c>
       <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2497,22 +2536,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
       <c r="F7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -2523,25 +2562,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>-28</v>
+        <v>-4</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2549,25 +2588,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2575,25 +2614,77 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>-12</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-24</v>
+      </c>
+      <c r="F11">
+        <v>-28</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
+      <c r="H12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,28 +52,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,60 +136,54 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Heba I</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -668,28 +668,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -703,31 +703,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -738,22 +738,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -770,34 +770,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -805,34 +805,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,34 +840,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -878,31 +878,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -910,34 +910,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,22 +948,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1049,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1102,13 +1102,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1133,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1171,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D2">
-        <v>-0.7000000000000002</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>-0.1000000000000001</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1256,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,16 +1307,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1327,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1392,379 +1392,379 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55.81</v>
+        <v>31.23</v>
       </c>
       <c r="C2">
-        <v>22.99</v>
+        <v>25.27</v>
       </c>
       <c r="D2">
-        <v>11.19</v>
+        <v>18.03</v>
       </c>
       <c r="E2">
-        <v>5.72</v>
+        <v>10.85</v>
       </c>
       <c r="F2">
-        <v>2.41</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G2">
-        <v>1.14</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0.54</v>
+        <v>2.31</v>
       </c>
       <c r="I2">
-        <v>0.16</v>
+        <v>1.07</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="L2">
-        <v>99.25999999999999</v>
+        <v>95.97999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>13.25</v>
+        <v>29.58</v>
       </c>
       <c r="C3">
-        <v>19.42</v>
+        <v>22.72</v>
       </c>
       <c r="D3">
-        <v>18.29</v>
+        <v>17.1</v>
       </c>
       <c r="E3">
-        <v>15.68</v>
+        <v>12.07</v>
       </c>
       <c r="F3">
-        <v>11.98</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="G3">
-        <v>9.539999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="H3">
-        <v>6.329999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>3.62</v>
+        <v>1.57</v>
       </c>
       <c r="J3">
-        <v>1.62</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="K3">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="L3">
-        <v>88.16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10.87</v>
+        <v>24.98</v>
       </c>
       <c r="C4">
-        <v>15.52</v>
+        <v>25.53</v>
       </c>
       <c r="D4">
-        <v>18.14</v>
+        <v>21.4</v>
       </c>
       <c r="E4">
-        <v>16.79</v>
+        <v>12.12</v>
       </c>
       <c r="F4">
-        <v>14.68</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="G4">
-        <v>10.39</v>
+        <v>4.43</v>
       </c>
       <c r="H4">
-        <v>7.249999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="I4">
-        <v>4.18</v>
+        <v>1.14</v>
       </c>
       <c r="J4">
-        <v>1.87</v>
+        <v>0.36</v>
       </c>
       <c r="K4">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="L4">
-        <v>86.39</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>10.34</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="C5">
-        <v>16.94</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D5">
-        <v>16.83</v>
+        <v>9.02</v>
       </c>
       <c r="E5">
-        <v>15.77</v>
+        <v>12.33</v>
       </c>
       <c r="F5">
-        <v>13.15</v>
+        <v>13.99</v>
       </c>
       <c r="G5">
-        <v>10.65</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>7.960000000000001</v>
+        <v>13.22</v>
       </c>
       <c r="I5">
-        <v>5.12</v>
+        <v>11.28</v>
       </c>
       <c r="J5">
-        <v>2.61</v>
+        <v>9.31</v>
       </c>
       <c r="K5">
-        <v>0.63</v>
+        <v>5.72</v>
       </c>
       <c r="L5">
-        <v>83.68000000000001</v>
+        <v>60.47000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>5.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="C6">
-        <v>12.35</v>
+        <v>5.21</v>
       </c>
       <c r="D6">
-        <v>14.2</v>
+        <v>9.07</v>
       </c>
       <c r="E6">
-        <v>14.62</v>
+        <v>11.7</v>
       </c>
       <c r="F6">
-        <v>14.4</v>
+        <v>13.08</v>
       </c>
       <c r="G6">
-        <v>12.92</v>
+        <v>14.36</v>
       </c>
       <c r="H6">
-        <v>11.39</v>
+        <v>13.58</v>
       </c>
       <c r="I6">
-        <v>8.110000000000001</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>4.94</v>
+        <v>10.39</v>
       </c>
       <c r="K6">
-        <v>1.39</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="L6">
-        <v>74.17</v>
+        <v>56.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.05</v>
+        <v>3.13</v>
       </c>
       <c r="C7">
-        <v>5.220000000000001</v>
+        <v>5.81</v>
       </c>
       <c r="D7">
-        <v>8.050000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="E7">
-        <v>10.46</v>
+        <v>12.68</v>
       </c>
       <c r="F7">
-        <v>13.12</v>
+        <v>14.67</v>
       </c>
       <c r="G7">
-        <v>14.85</v>
+        <v>14.45</v>
       </c>
       <c r="H7">
-        <v>15.69</v>
+        <v>13.06</v>
       </c>
       <c r="I7">
-        <v>14.2</v>
+        <v>11.58</v>
       </c>
       <c r="J7">
-        <v>11.67</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="K7">
-        <v>4.69</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="L7">
-        <v>53.75000000000001</v>
+        <v>59.56999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="C8">
-        <v>5.02</v>
+        <v>4.55</v>
       </c>
       <c r="D8">
-        <v>7.64</v>
+        <v>8.17</v>
       </c>
       <c r="E8">
-        <v>10.69</v>
+        <v>10.95</v>
       </c>
       <c r="F8">
-        <v>13.27</v>
+        <v>13.76</v>
       </c>
       <c r="G8">
-        <v>15.19</v>
+        <v>13.29</v>
       </c>
       <c r="H8">
-        <v>14.93</v>
+        <v>13.7</v>
       </c>
       <c r="I8">
-        <v>14.74</v>
+        <v>13.28</v>
       </c>
       <c r="J8">
-        <v>12.09</v>
+        <v>11.15</v>
       </c>
       <c r="K8">
-        <v>5.13</v>
+        <v>9.08</v>
       </c>
       <c r="L8">
-        <v>53.11</v>
+        <v>52.79</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>1.28</v>
       </c>
       <c r="C9">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>3.65</v>
+        <v>5.45</v>
       </c>
       <c r="E9">
-        <v>6.03</v>
+        <v>9.69</v>
       </c>
       <c r="F9">
-        <v>9.139999999999999</v>
+        <v>11.17</v>
       </c>
       <c r="G9">
-        <v>12.6</v>
+        <v>13.22</v>
       </c>
       <c r="H9">
-        <v>16.17</v>
+        <v>14.27</v>
       </c>
       <c r="I9">
-        <v>19.57</v>
+        <v>14.52</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>14.16</v>
       </c>
       <c r="K9">
-        <v>11.59</v>
+        <v>13.44</v>
       </c>
       <c r="L9">
-        <v>33.67</v>
+        <v>43.61</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D10">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="E10">
-        <v>4.02</v>
+        <v>3.77</v>
       </c>
       <c r="F10">
-        <v>7.06</v>
+        <v>5.66</v>
       </c>
       <c r="G10">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="H10">
-        <v>14.96</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>20.37</v>
+        <v>17.74</v>
       </c>
       <c r="J10">
-        <v>23.19</v>
+        <v>23.02</v>
       </c>
       <c r="K10">
-        <v>16.6</v>
+        <v>25.95</v>
       </c>
       <c r="L10">
-        <v>24.88</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>1.46</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>3.84</v>
       </c>
       <c r="F11">
-        <v>0.79</v>
+        <v>5.7</v>
       </c>
       <c r="G11">
-        <v>1.82</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="H11">
-        <v>4.78</v>
+        <v>11.37</v>
       </c>
       <c r="I11">
-        <v>9.93</v>
+        <v>15.82</v>
       </c>
       <c r="J11">
-        <v>22.98</v>
+        <v>21.16</v>
       </c>
       <c r="K11">
-        <v>59.38</v>
+        <v>31.43</v>
       </c>
       <c r="L11">
-        <v>2.93</v>
+        <v>20.22</v>
       </c>
     </row>
   </sheetData>
@@ -1802,16 +1802,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -1822,16 +1822,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -1842,16 +1842,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1862,19 +1862,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1951,10 +1951,10 @@
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2004,186 +2004,222 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B7">
         <v>-6</v>
@@ -2192,27 +2228,33 @@
         <v>-4</v>
       </c>
       <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
         <v>-5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-4</v>
+      </c>
+      <c r="I7">
+        <v>-4</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>-6</v>
@@ -2221,25 +2263,31 @@
         <v>-4</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>-4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2264,66 +2312,84 @@
       <c r="H9">
         <v>-7</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-4</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="H10">
+        <v>-28</v>
+      </c>
+      <c r="I10">
         <v>-24</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>-25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>-4</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G11">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="H11">
+        <v>-24</v>
+      </c>
+      <c r="I11">
         <v>-28</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="J11">
+        <v>-25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2367,25 +2433,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>-25</v>
       </c>
       <c r="F2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2393,25 +2459,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>-28</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2419,25 +2485,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>-25</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2445,25 +2511,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2471,25 +2537,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2497,25 +2563,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2523,25 +2589,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2549,25 +2615,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2575,25 +2641,129 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>-12</v>
+      </c>
+      <c r="F13">
+        <v>-8</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>-24</v>
+      </c>
+      <c r="F14">
+        <v>-28</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -1389,78 +1389,78 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>31.23</v>
+        <v>22.83</v>
       </c>
       <c r="C2">
-        <v>25.27</v>
+        <v>18.08</v>
       </c>
       <c r="D2">
-        <v>18.03</v>
+        <v>9.81</v>
       </c>
       <c r="E2">
-        <v>10.85</v>
+        <v>12.13</v>
       </c>
       <c r="F2">
-        <v>6.600000000000001</v>
+        <v>14.28</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="H2">
-        <v>2.31</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>1.07</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>3.83</v>
       </c>
       <c r="K2">
-        <v>0.19</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
-        <v>95.97999999999999</v>
+        <v>82.44999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>29.58</v>
+        <v>18.81</v>
       </c>
       <c r="C3">
-        <v>22.72</v>
+        <v>19.31</v>
       </c>
       <c r="D3">
-        <v>17.1</v>
+        <v>12.76</v>
       </c>
       <c r="E3">
-        <v>12.07</v>
+        <v>10.17</v>
       </c>
       <c r="F3">
-        <v>7.739999999999999</v>
+        <v>14.86</v>
       </c>
       <c r="G3">
-        <v>4.79</v>
+        <v>7.66</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="I3">
-        <v>1.57</v>
+        <v>6.18</v>
       </c>
       <c r="J3">
-        <v>0.7799999999999999</v>
+        <v>3.78</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>94</v>
+        <v>83.56999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1468,75 +1468,75 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>24.98</v>
+        <v>14.59</v>
       </c>
       <c r="C4">
-        <v>25.53</v>
+        <v>17.67</v>
       </c>
       <c r="D4">
-        <v>21.4</v>
+        <v>16.87</v>
       </c>
       <c r="E4">
-        <v>12.12</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F4">
-        <v>7.630000000000001</v>
+        <v>14.35</v>
       </c>
       <c r="G4">
-        <v>4.43</v>
+        <v>10.12</v>
       </c>
       <c r="H4">
-        <v>2.29</v>
+        <v>4.47</v>
       </c>
       <c r="I4">
-        <v>1.14</v>
+        <v>6.05</v>
       </c>
       <c r="J4">
-        <v>0.36</v>
+        <v>4.32</v>
       </c>
       <c r="K4">
-        <v>0.12</v>
+        <v>2.02</v>
       </c>
       <c r="L4">
-        <v>96.09</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4.130000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="C5">
-        <v>7.000000000000001</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="D5">
-        <v>9.02</v>
+        <v>9.82</v>
       </c>
       <c r="E5">
-        <v>12.33</v>
+        <v>13.37</v>
       </c>
       <c r="F5">
-        <v>13.99</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H5">
-        <v>13.22</v>
+        <v>15.34</v>
       </c>
       <c r="I5">
-        <v>11.28</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="J5">
-        <v>9.31</v>
+        <v>9.6</v>
       </c>
       <c r="K5">
-        <v>5.72</v>
+        <v>11.46</v>
       </c>
       <c r="L5">
-        <v>60.47000000000001</v>
+        <v>53.99</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1544,75 +1544,75 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>3.36</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C6">
-        <v>5.21</v>
+        <v>6.84</v>
       </c>
       <c r="D6">
-        <v>9.07</v>
+        <v>7.91</v>
       </c>
       <c r="E6">
-        <v>11.7</v>
+        <v>13.72</v>
       </c>
       <c r="F6">
-        <v>13.08</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="G6">
-        <v>14.36</v>
+        <v>5.77</v>
       </c>
       <c r="H6">
-        <v>13.58</v>
+        <v>14.54</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="J6">
-        <v>10.39</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>7.249999999999999</v>
+        <v>13.03</v>
       </c>
       <c r="L6">
-        <v>56.78</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3.13</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="C7">
-        <v>5.81</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="D7">
-        <v>8.83</v>
+        <v>6.92</v>
       </c>
       <c r="E7">
-        <v>12.68</v>
+        <v>13.45</v>
       </c>
       <c r="F7">
-        <v>14.67</v>
+        <v>11.25</v>
       </c>
       <c r="G7">
-        <v>14.45</v>
+        <v>4.79</v>
       </c>
       <c r="H7">
-        <v>13.06</v>
+        <v>11.31</v>
       </c>
       <c r="I7">
-        <v>11.58</v>
+        <v>13.56</v>
       </c>
       <c r="J7">
-        <v>9.220000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K7">
-        <v>6.569999999999999</v>
+        <v>12.66</v>
       </c>
       <c r="L7">
-        <v>59.56999999999999</v>
+        <v>52.67</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1620,37 +1620,37 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>2.07</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="C8">
-        <v>4.55</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="D8">
-        <v>8.17</v>
+        <v>11.61</v>
       </c>
       <c r="E8">
-        <v>10.95</v>
+        <v>10.78</v>
       </c>
       <c r="F8">
-        <v>13.76</v>
+        <v>5.04</v>
       </c>
       <c r="G8">
-        <v>13.29</v>
+        <v>12.27</v>
       </c>
       <c r="H8">
-        <v>13.7</v>
+        <v>15.22</v>
       </c>
       <c r="I8">
-        <v>13.28</v>
+        <v>8.19</v>
       </c>
       <c r="J8">
-        <v>11.15</v>
+        <v>10.88</v>
       </c>
       <c r="K8">
-        <v>9.08</v>
+        <v>11.34</v>
       </c>
       <c r="L8">
-        <v>52.79</v>
+        <v>54.37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1658,37 +1658,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.28</v>
+        <v>6.09</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>6.63</v>
       </c>
       <c r="D9">
-        <v>5.45</v>
+        <v>10.96</v>
       </c>
       <c r="E9">
-        <v>9.69</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="F9">
-        <v>11.17</v>
+        <v>6.36</v>
       </c>
       <c r="G9">
-        <v>13.22</v>
+        <v>15.83</v>
       </c>
       <c r="H9">
-        <v>14.27</v>
+        <v>12.19</v>
       </c>
       <c r="I9">
-        <v>14.52</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J9">
-        <v>14.16</v>
+        <v>13.34</v>
       </c>
       <c r="K9">
-        <v>13.44</v>
+        <v>12.51</v>
       </c>
       <c r="L9">
-        <v>43.61</v>
+        <v>53.59</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1696,37 +1696,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0.12</v>
+        <v>2.66</v>
       </c>
       <c r="C10">
-        <v>0.5700000000000001</v>
+        <v>4.32</v>
       </c>
       <c r="D10">
-        <v>1.47</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>3.77</v>
+        <v>4.8</v>
       </c>
       <c r="F10">
-        <v>5.66</v>
+        <v>11.94</v>
       </c>
       <c r="G10">
-        <v>8.9</v>
+        <v>14.59</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>8.94</v>
       </c>
       <c r="I10">
-        <v>17.74</v>
+        <v>16.8</v>
       </c>
       <c r="J10">
-        <v>23.02</v>
+        <v>15.57</v>
       </c>
       <c r="K10">
-        <v>25.95</v>
+        <v>13.63</v>
       </c>
       <c r="L10">
-        <v>20.49</v>
+        <v>45.06</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1734,37 +1734,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.12</v>
+        <v>2.46</v>
       </c>
       <c r="C11">
-        <v>0.54</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="D11">
-        <v>1.46</v>
+        <v>6.59</v>
       </c>
       <c r="E11">
-        <v>3.84</v>
+        <v>4.32</v>
       </c>
       <c r="F11">
-        <v>5.7</v>
+        <v>8.07</v>
       </c>
       <c r="G11">
-        <v>8.559999999999999</v>
+        <v>15.45</v>
       </c>
       <c r="H11">
-        <v>11.37</v>
+        <v>9.32</v>
       </c>
       <c r="I11">
-        <v>15.82</v>
+        <v>12.55</v>
       </c>
       <c r="J11">
-        <v>21.16</v>
+        <v>18.88</v>
       </c>
       <c r="K11">
-        <v>31.43</v>
+        <v>18.25</v>
       </c>
       <c r="L11">
-        <v>20.22</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,28 +52,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,40 +151,49 @@
     <t>Kabir Manocha</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>Saurin Sethia</t>
   </si>
   <si>
     <t>Heba I</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +221,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,31 +648,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -665,34 +680,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -700,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -712,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -724,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -735,34 +750,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -770,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -779,16 +794,16 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -797,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -805,34 +820,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,34 +855,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -875,19 +890,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -899,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -910,34 +925,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
       <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,28 +963,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -990,13 +1005,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1007,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1021,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1035,10 +1050,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1046,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1060,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4.6</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,13 +1089,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1102,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1119,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1133,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1154,16 +1169,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1174,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D2">
-        <v>-0.9000000000000004</v>
+        <v>-1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1191,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1208,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D4">
-        <v>-0.09999999999999964</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1225,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="D5">
-        <v>-0.2000000000000002</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1242,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1259,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
-        <v>0.2000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1276,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1293,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D9">
-        <v>-1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,16 +1322,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1324,16 +1339,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1351,382 +1366,382 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>22.83</v>
+        <v>13.55</v>
       </c>
       <c r="C2">
-        <v>18.08</v>
+        <v>12.2</v>
       </c>
       <c r="D2">
-        <v>9.81</v>
+        <v>15.97</v>
       </c>
       <c r="E2">
-        <v>12.13</v>
+        <v>17.74</v>
       </c>
       <c r="F2">
-        <v>14.28</v>
+        <v>5.73</v>
       </c>
       <c r="G2">
-        <v>5.319999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>12.4</v>
       </c>
       <c r="I2">
-        <v>6.419999999999999</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="J2">
-        <v>3.83</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>4.22</v>
       </c>
       <c r="L2">
-        <v>82.44999999999999</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>18.81</v>
+        <v>13.54</v>
       </c>
       <c r="C3">
-        <v>19.31</v>
+        <v>14.62</v>
       </c>
       <c r="D3">
-        <v>12.76</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="E3">
-        <v>10.17</v>
+        <v>3.71</v>
       </c>
       <c r="F3">
-        <v>14.86</v>
+        <v>12.55</v>
       </c>
       <c r="G3">
-        <v>7.66</v>
+        <v>16.62</v>
       </c>
       <c r="H3">
-        <v>4.17</v>
+        <v>5.71</v>
       </c>
       <c r="I3">
-        <v>6.18</v>
+        <v>5.27</v>
       </c>
       <c r="J3">
-        <v>3.78</v>
+        <v>9.58</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>8.43</v>
       </c>
       <c r="L3">
-        <v>83.56999999999999</v>
+        <v>71.00999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>14.59</v>
+        <v>11.88</v>
       </c>
       <c r="C4">
-        <v>17.67</v>
+        <v>13.22</v>
       </c>
       <c r="D4">
-        <v>16.87</v>
+        <v>13.4</v>
       </c>
       <c r="E4">
-        <v>9.539999999999999</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="F4">
-        <v>14.35</v>
+        <v>7.95</v>
       </c>
       <c r="G4">
-        <v>10.12</v>
+        <v>17.28</v>
       </c>
       <c r="H4">
-        <v>4.47</v>
+        <v>9.77</v>
       </c>
       <c r="I4">
-        <v>6.05</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="J4">
-        <v>4.32</v>
+        <v>8.85</v>
       </c>
       <c r="K4">
-        <v>2.02</v>
+        <v>8.98</v>
       </c>
       <c r="L4">
-        <v>83.14</v>
+        <v>68.01000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>8.57</v>
+        <v>11.77</v>
       </c>
       <c r="C5">
-        <v>7.960000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="D5">
-        <v>9.82</v>
+        <v>17.17</v>
       </c>
       <c r="E5">
-        <v>13.37</v>
+        <v>11.82</v>
       </c>
       <c r="F5">
-        <v>6.069999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="G5">
-        <v>8.200000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="H5">
-        <v>15.34</v>
+        <v>14.18</v>
       </c>
       <c r="I5">
-        <v>9.610000000000001</v>
+        <v>6.59</v>
       </c>
       <c r="J5">
-        <v>9.6</v>
+        <v>6.29</v>
       </c>
       <c r="K5">
-        <v>11.46</v>
+        <v>6.74</v>
       </c>
       <c r="L5">
-        <v>53.99</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8.140000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="C6">
-        <v>6.84</v>
+        <v>12.79</v>
       </c>
       <c r="D6">
-        <v>7.91</v>
+        <v>15.44</v>
       </c>
       <c r="E6">
-        <v>13.72</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="F6">
-        <v>7.779999999999999</v>
+        <v>4.44</v>
       </c>
       <c r="G6">
-        <v>5.77</v>
+        <v>14.94</v>
       </c>
       <c r="H6">
-        <v>14.54</v>
+        <v>13.29</v>
       </c>
       <c r="I6">
-        <v>12.27</v>
+        <v>4.77</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>7.77</v>
       </c>
       <c r="K6">
-        <v>13.03</v>
+        <v>8.58</v>
       </c>
       <c r="L6">
-        <v>50.16</v>
+        <v>65.59</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>8.129999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="C7">
-        <v>8.129999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D7">
-        <v>6.92</v>
+        <v>4.46</v>
       </c>
       <c r="E7">
-        <v>13.45</v>
+        <v>10.37</v>
       </c>
       <c r="F7">
-        <v>11.25</v>
+        <v>17.8</v>
       </c>
       <c r="G7">
-        <v>4.79</v>
+        <v>8.09</v>
       </c>
       <c r="H7">
-        <v>11.31</v>
+        <v>3.88</v>
       </c>
       <c r="I7">
-        <v>13.56</v>
+        <v>11.84</v>
       </c>
       <c r="J7">
-        <v>9.800000000000001</v>
+        <v>12.84</v>
       </c>
       <c r="K7">
-        <v>12.66</v>
+        <v>11.04</v>
       </c>
       <c r="L7">
-        <v>52.67</v>
+        <v>60.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>7.720000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="C8">
-        <v>6.950000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="D8">
-        <v>11.61</v>
+        <v>5.76</v>
       </c>
       <c r="E8">
-        <v>10.78</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="F8">
-        <v>5.04</v>
+        <v>17.37</v>
       </c>
       <c r="G8">
-        <v>12.27</v>
+        <v>12.85</v>
       </c>
       <c r="H8">
-        <v>15.22</v>
+        <v>3.54</v>
       </c>
       <c r="I8">
-        <v>8.19</v>
+        <v>8.93</v>
       </c>
       <c r="J8">
-        <v>10.88</v>
+        <v>13.34</v>
       </c>
       <c r="K8">
-        <v>11.34</v>
+        <v>11.87</v>
       </c>
       <c r="L8">
-        <v>54.37</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>6.09</v>
+        <v>8.33</v>
       </c>
       <c r="C9">
-        <v>6.63</v>
+        <v>7.23</v>
       </c>
       <c r="D9">
-        <v>10.96</v>
+        <v>4.63</v>
       </c>
       <c r="E9">
-        <v>7.720000000000001</v>
+        <v>13.25</v>
       </c>
       <c r="F9">
-        <v>6.36</v>
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>15.83</v>
+        <v>4.25</v>
       </c>
       <c r="H9">
-        <v>12.19</v>
+        <v>6.64</v>
       </c>
       <c r="I9">
-        <v>8.369999999999999</v>
+        <v>16.55</v>
       </c>
       <c r="J9">
-        <v>13.34</v>
+        <v>12.8</v>
       </c>
       <c r="K9">
-        <v>12.51</v>
+        <v>11.68</v>
       </c>
       <c r="L9">
-        <v>53.59</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2.66</v>
+        <v>6.11</v>
       </c>
       <c r="C10">
-        <v>4.32</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="D10">
-        <v>6.75</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="E10">
-        <v>4.8</v>
+        <v>13.18</v>
       </c>
       <c r="F10">
-        <v>11.94</v>
+        <v>7.22</v>
       </c>
       <c r="G10">
-        <v>14.59</v>
+        <v>5.93</v>
       </c>
       <c r="H10">
-        <v>8.94</v>
+        <v>17.67</v>
       </c>
       <c r="I10">
-        <v>16.8</v>
+        <v>14.34</v>
       </c>
       <c r="J10">
-        <v>15.57</v>
+        <v>11.02</v>
       </c>
       <c r="K10">
-        <v>13.63</v>
+        <v>11.48</v>
       </c>
       <c r="L10">
-        <v>45.06</v>
+        <v>45.49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1734,37 +1749,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>2.46</v>
+        <v>4.45</v>
       </c>
       <c r="C11">
-        <v>4.109999999999999</v>
+        <v>3.56</v>
       </c>
       <c r="D11">
-        <v>6.59</v>
+        <v>4.91</v>
       </c>
       <c r="E11">
-        <v>4.32</v>
+        <v>12.48</v>
       </c>
       <c r="F11">
-        <v>8.07</v>
+        <v>8.35</v>
       </c>
       <c r="G11">
-        <v>15.45</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>9.32</v>
+        <v>12.92</v>
       </c>
       <c r="I11">
-        <v>12.55</v>
+        <v>19.67</v>
       </c>
       <c r="J11">
-        <v>18.88</v>
+        <v>13.38</v>
       </c>
       <c r="K11">
-        <v>18.25</v>
+        <v>16.98</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>37.05</v>
       </c>
     </row>
   </sheetData>
@@ -1782,19 +1797,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1805,16 +1820,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1825,16 +1840,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1845,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1865,16 +1880,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1882,19 +1897,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1902,19 +1917,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1922,19 +1937,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1942,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1962,19 +1977,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1982,19 +1997,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2004,45 +2019,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2073,11 +2091,14 @@
       <c r="J2">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2108,11 +2129,14 @@
       <c r="J3">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2143,11 +2167,14 @@
       <c r="J4">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2178,218 +2205,239 @@
       <c r="J5">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>-4</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-10</v>
+      </c>
+      <c r="D8">
+        <v>-16</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
         <v>-6</v>
       </c>
-      <c r="C7">
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-7</v>
+      </c>
+      <c r="I8">
+        <v>-7</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="D7">
-        <v>-10</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-10</v>
-      </c>
-      <c r="G7">
+      <c r="D9">
         <v>-5</v>
       </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>-4</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
-      </c>
-      <c r="E8">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>-2</v>
       </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-10</v>
-      </c>
-      <c r="D9">
-        <v>-16</v>
-      </c>
-      <c r="E9">
-        <v>-12</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>-4</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G10">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="H10">
+        <v>-24</v>
+      </c>
+      <c r="I10">
         <v>-28</v>
-      </c>
-      <c r="I10">
-        <v>-24</v>
       </c>
       <c r="J10">
         <v>-25</v>
       </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-4</v>
       </c>
       <c r="C11">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D11">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E11">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F11">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="G11">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="H11">
+        <v>-28</v>
+      </c>
+      <c r="I11">
         <v>-24</v>
-      </c>
-      <c r="I11">
-        <v>-28</v>
       </c>
       <c r="J11">
         <v>-25</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
+      <c r="K11">
+        <v>-31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2407,25 +2455,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2537,25 +2585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>-31</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2563,25 +2611,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2589,25 +2637,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2618,22 +2666,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2641,25 +2689,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2667,25 +2715,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2693,25 +2741,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
         <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2719,51 +2767,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>-12</v>
-      </c>
       <c r="F13">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>-24</v>
-      </c>
-      <c r="F14">
-        <v>-28</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="80">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,31 +52,40 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>4-6-1</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>6-4-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,63 +148,66 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>Heba I</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -648,31 +663,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -680,34 +695,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -715,34 +730,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -750,34 +765,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -785,34 +800,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -820,34 +835,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -855,34 +870,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -890,34 +905,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -925,34 +940,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -960,31 +975,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1005,13 +1020,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1022,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1033,13 +1048,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1047,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1061,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1075,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1092,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1103,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1117,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1131,13 +1146,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1145,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1169,16 +1184,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1189,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D2">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1203,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>6.1</v>
-      </c>
       <c r="D3">
-        <v>-0.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1220,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1240,13 +1255,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1257,13 +1272,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1271,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1288,16 +1303,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D8">
-        <v>2.2</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1305,13 +1320,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D9">
-        <v>-2.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1322,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>-0.2000000000000002</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1342,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1366,78 +1381,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>13.55</v>
+        <v>13.48</v>
       </c>
       <c r="C2">
-        <v>12.2</v>
+        <v>6.74</v>
       </c>
       <c r="D2">
-        <v>15.97</v>
+        <v>16.18</v>
       </c>
       <c r="E2">
-        <v>17.74</v>
+        <v>16.51</v>
       </c>
       <c r="F2">
-        <v>5.73</v>
+        <v>3.8</v>
       </c>
       <c r="G2">
-        <v>6.41</v>
+        <v>1.52</v>
       </c>
       <c r="H2">
-        <v>12.4</v>
+        <v>9.98</v>
       </c>
       <c r="I2">
-        <v>7.649999999999999</v>
+        <v>15.95</v>
       </c>
       <c r="J2">
-        <v>4.130000000000001</v>
+        <v>7.44</v>
       </c>
       <c r="K2">
-        <v>4.22</v>
+        <v>8.4</v>
       </c>
       <c r="L2">
-        <v>71.59999999999999</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1445,75 +1460,75 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>13.54</v>
+        <v>12.81</v>
       </c>
       <c r="C3">
-        <v>14.62</v>
+        <v>6.4</v>
       </c>
       <c r="D3">
-        <v>9.969999999999999</v>
+        <v>11.37</v>
       </c>
       <c r="E3">
-        <v>3.71</v>
+        <v>21.29</v>
       </c>
       <c r="F3">
-        <v>12.55</v>
+        <v>8.91</v>
       </c>
       <c r="G3">
-        <v>16.62</v>
+        <v>1.23</v>
       </c>
       <c r="H3">
-        <v>5.71</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="I3">
-        <v>5.27</v>
+        <v>14.02</v>
       </c>
       <c r="J3">
-        <v>9.58</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K3">
-        <v>8.43</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="L3">
-        <v>71.00999999999999</v>
+        <v>62.01</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>11.88</v>
+        <v>12.72</v>
       </c>
       <c r="C4">
-        <v>13.22</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="D4">
-        <v>13.4</v>
+        <v>18.35</v>
       </c>
       <c r="E4">
-        <v>4.279999999999999</v>
+        <v>10.85</v>
       </c>
       <c r="F4">
-        <v>7.95</v>
+        <v>1.58</v>
       </c>
       <c r="G4">
-        <v>17.28</v>
+        <v>3.34</v>
       </c>
       <c r="H4">
-        <v>9.77</v>
+        <v>14.37</v>
       </c>
       <c r="I4">
-        <v>4.390000000000001</v>
+        <v>15.23</v>
       </c>
       <c r="J4">
-        <v>8.85</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="K4">
-        <v>8.98</v>
+        <v>9.56</v>
       </c>
       <c r="L4">
-        <v>68.01000000000001</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1521,37 +1536,37 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>11.77</v>
+        <v>12.5</v>
       </c>
       <c r="C5">
-        <v>11.16</v>
+        <v>12.69</v>
       </c>
       <c r="D5">
-        <v>17.17</v>
+        <v>4.38</v>
       </c>
       <c r="E5">
-        <v>11.82</v>
+        <v>12.89</v>
       </c>
       <c r="F5">
-        <v>3.95</v>
+        <v>22.59</v>
       </c>
       <c r="G5">
-        <v>10.33</v>
+        <v>7.69</v>
       </c>
       <c r="H5">
-        <v>14.18</v>
+        <v>1.84</v>
       </c>
       <c r="I5">
-        <v>6.59</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="J5">
-        <v>6.29</v>
+        <v>10.47</v>
       </c>
       <c r="K5">
-        <v>6.74</v>
+        <v>6.84</v>
       </c>
       <c r="L5">
-        <v>66.2</v>
+        <v>72.73999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1559,151 +1574,151 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10.78</v>
+        <v>12.3</v>
       </c>
       <c r="C6">
-        <v>12.79</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>15.44</v>
+        <v>5.74</v>
       </c>
       <c r="E6">
-        <v>7.199999999999999</v>
+        <v>20.28</v>
       </c>
       <c r="F6">
-        <v>4.44</v>
+        <v>16.86</v>
       </c>
       <c r="G6">
-        <v>14.94</v>
+        <v>2.85</v>
       </c>
       <c r="H6">
-        <v>13.29</v>
+        <v>3.38</v>
       </c>
       <c r="I6">
-        <v>4.77</v>
+        <v>11.38</v>
       </c>
       <c r="J6">
-        <v>7.77</v>
+        <v>10.74</v>
       </c>
       <c r="K6">
-        <v>8.58</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="L6">
-        <v>65.59</v>
+        <v>66.53</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>9.84</v>
+        <v>10.29</v>
       </c>
       <c r="C7">
-        <v>9.84</v>
+        <v>18.64</v>
       </c>
       <c r="D7">
-        <v>4.46</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="E7">
-        <v>10.37</v>
+        <v>6.41</v>
       </c>
       <c r="F7">
-        <v>17.8</v>
+        <v>20.95</v>
       </c>
       <c r="G7">
-        <v>8.09</v>
+        <v>14.81</v>
       </c>
       <c r="H7">
-        <v>3.88</v>
+        <v>2.51</v>
       </c>
       <c r="I7">
-        <v>11.84</v>
+        <v>5.16</v>
       </c>
       <c r="J7">
-        <v>12.84</v>
+        <v>8.32</v>
       </c>
       <c r="K7">
-        <v>11.04</v>
+        <v>5.33</v>
       </c>
       <c r="L7">
-        <v>60.40000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>9.75</v>
+        <v>7.19</v>
       </c>
       <c r="C8">
-        <v>10.62</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="D8">
-        <v>5.76</v>
+        <v>13.17</v>
       </c>
       <c r="E8">
-        <v>5.970000000000001</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="F8">
-        <v>17.37</v>
+        <v>1.11</v>
       </c>
       <c r="G8">
-        <v>12.85</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="H8">
-        <v>3.54</v>
+        <v>21.71</v>
       </c>
       <c r="I8">
-        <v>8.93</v>
+        <v>11.6</v>
       </c>
       <c r="J8">
-        <v>13.34</v>
+        <v>6.75</v>
       </c>
       <c r="K8">
-        <v>11.87</v>
+        <v>15.9</v>
       </c>
       <c r="L8">
-        <v>62.32</v>
+        <v>44.04</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>8.33</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="C9">
-        <v>7.23</v>
+        <v>10.81</v>
       </c>
       <c r="D9">
-        <v>4.63</v>
+        <v>11.09</v>
       </c>
       <c r="E9">
-        <v>13.25</v>
+        <v>2.92</v>
       </c>
       <c r="F9">
-        <v>14.64</v>
+        <v>2.64</v>
       </c>
       <c r="G9">
-        <v>4.25</v>
+        <v>15.6</v>
       </c>
       <c r="H9">
-        <v>6.64</v>
+        <v>20.18</v>
       </c>
       <c r="I9">
-        <v>16.55</v>
+        <v>6.3</v>
       </c>
       <c r="J9">
-        <v>12.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K9">
-        <v>11.68</v>
+        <v>14.05</v>
       </c>
       <c r="L9">
-        <v>52.33</v>
+        <v>50.17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1711,37 +1726,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.11</v>
+        <v>6.73</v>
       </c>
       <c r="C10">
-        <v>4.760000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="D10">
-        <v>8.290000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="E10">
-        <v>13.18</v>
+        <v>2.46</v>
       </c>
       <c r="F10">
-        <v>7.22</v>
+        <v>14.61</v>
       </c>
       <c r="G10">
-        <v>5.93</v>
+        <v>22.36</v>
       </c>
       <c r="H10">
-        <v>17.67</v>
+        <v>6.98</v>
       </c>
       <c r="I10">
-        <v>14.34</v>
+        <v>6.78</v>
       </c>
       <c r="J10">
-        <v>11.02</v>
+        <v>15.64</v>
       </c>
       <c r="K10">
-        <v>11.48</v>
+        <v>8.08</v>
       </c>
       <c r="L10">
-        <v>45.49</v>
+        <v>62.52</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1749,37 +1764,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>4.45</v>
+        <v>4.87</v>
       </c>
       <c r="C11">
-        <v>3.56</v>
+        <v>7.84</v>
       </c>
       <c r="D11">
-        <v>4.91</v>
+        <v>5.84</v>
       </c>
       <c r="E11">
-        <v>12.48</v>
+        <v>1.54</v>
       </c>
       <c r="F11">
-        <v>8.35</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>22.06</v>
       </c>
       <c r="H11">
-        <v>12.92</v>
+        <v>13.15</v>
       </c>
       <c r="I11">
-        <v>19.67</v>
+        <v>5.47</v>
       </c>
       <c r="J11">
-        <v>13.38</v>
+        <v>17.2</v>
       </c>
       <c r="K11">
-        <v>16.98</v>
+        <v>15.08</v>
       </c>
       <c r="L11">
-        <v>37.05</v>
+        <v>49.09999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1797,19 +1812,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1817,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1840,16 +1855,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1857,19 +1872,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1880,16 +1895,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1900,16 +1915,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1917,19 +1932,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1937,19 +1952,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1957,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1977,19 +1992,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2000,16 +2015,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2019,86 +2034,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2132,49 +2153,55 @@
       <c r="K3">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>17</v>
       </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2208,11 +2235,14 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2246,163 +2276,178 @@
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-10</v>
+      </c>
+      <c r="D7">
+        <v>-16</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>-7</v>
+      </c>
+      <c r="I7">
+        <v>-7</v>
+      </c>
+      <c r="J7">
+        <v>-7</v>
+      </c>
+      <c r="K7">
+        <v>-7</v>
+      </c>
+      <c r="L7">
+        <v>-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="L8">
+        <v>-5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-11</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-16</v>
+      </c>
+      <c r="H9">
+        <v>-24</v>
+      </c>
+      <c r="I9">
+        <v>-28</v>
+      </c>
+      <c r="J9">
+        <v>-25</v>
+      </c>
+      <c r="K9">
+        <v>-17</v>
+      </c>
+      <c r="L9">
+        <v>-16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>-10</v>
-      </c>
-      <c r="D8">
-        <v>-16</v>
-      </c>
-      <c r="E8">
-        <v>-12</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8">
-        <v>-7</v>
-      </c>
-      <c r="I8">
-        <v>-7</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="J10">
         <v>-2</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-11</v>
       </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
-        <v>-11</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-16</v>
-      </c>
-      <c r="H10">
-        <v>-24</v>
-      </c>
-      <c r="I10">
-        <v>-28</v>
-      </c>
-      <c r="J10">
-        <v>-25</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
         <v>-17</v>
       </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2436,8 +2481,11 @@
       <c r="K11">
         <v>-31</v>
       </c>
-      <c r="L11" t="s">
-        <v>57</v>
+      <c r="L11">
+        <v>-31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2455,25 +2503,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2741,25 +2789,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F12">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2767,25 +2815,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,40 +52,43 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>4-6-1</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>6-4-1</t>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>5-6-1</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>6-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,24 +151,24 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
@@ -178,34 +181,28 @@
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -663,31 +663,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -695,34 +695,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -730,34 +730,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -765,34 +765,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -800,34 +800,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -838,28 +838,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -870,34 +870,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -908,31 +908,31 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -943,31 +943,31 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -975,22 +975,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -999,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1020,13 +1020,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1048,13 +1048,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1062,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1076,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1090,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1104,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1118,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1132,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1146,13 +1146,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1184,16 +1184,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="D2">
         <v>-1.6</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1221,13 +1221,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D4">
-        <v>-0.4000000000000004</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D5">
-        <v>-0.5999999999999996</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D6">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1306,13 +1306,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1340,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>-2.7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1357,13 +1357,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D11">
-        <v>0.7000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1381,40 +1381,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1422,151 +1422,151 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>13.48</v>
+        <v>15.42</v>
       </c>
       <c r="C2">
-        <v>6.74</v>
+        <v>7.55</v>
       </c>
       <c r="D2">
-        <v>16.18</v>
+        <v>0.63</v>
       </c>
       <c r="E2">
-        <v>16.51</v>
+        <v>6.22</v>
       </c>
       <c r="F2">
-        <v>3.8</v>
+        <v>26.75</v>
       </c>
       <c r="G2">
-        <v>1.52</v>
+        <v>16.35</v>
       </c>
       <c r="H2">
-        <v>9.98</v>
+        <v>1.37</v>
       </c>
       <c r="I2">
-        <v>15.95</v>
+        <v>1.53</v>
       </c>
       <c r="J2">
-        <v>7.44</v>
+        <v>10.74</v>
       </c>
       <c r="K2">
-        <v>8.4</v>
+        <v>13.44</v>
       </c>
       <c r="L2">
-        <v>58.23</v>
+        <v>72.91999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81</v>
+        <v>14.47</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>3.76</v>
       </c>
       <c r="D3">
-        <v>11.37</v>
+        <v>1.33</v>
       </c>
       <c r="E3">
-        <v>21.29</v>
+        <v>17.37</v>
       </c>
       <c r="F3">
-        <v>8.91</v>
+        <v>24.72</v>
       </c>
       <c r="G3">
-        <v>1.23</v>
+        <v>5.82</v>
       </c>
       <c r="H3">
-        <v>5.899999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="I3">
-        <v>14.02</v>
+        <v>4.46</v>
       </c>
       <c r="J3">
-        <v>9.279999999999999</v>
+        <v>16.01</v>
       </c>
       <c r="K3">
-        <v>8.790000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="L3">
-        <v>62.01</v>
+        <v>67.47</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>12.72</v>
+        <v>14.38</v>
       </c>
       <c r="C4">
-        <v>9.139999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="D4">
-        <v>18.35</v>
+        <v>7.01</v>
       </c>
       <c r="E4">
-        <v>10.85</v>
+        <v>23.69</v>
       </c>
       <c r="F4">
-        <v>1.58</v>
+        <v>14.9</v>
       </c>
       <c r="G4">
-        <v>3.34</v>
+        <v>1.54</v>
       </c>
       <c r="H4">
-        <v>14.37</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>15.23</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="J4">
-        <v>4.859999999999999</v>
+        <v>19.22</v>
       </c>
       <c r="K4">
-        <v>9.56</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="L4">
-        <v>55.98</v>
+        <v>63.12</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>12.5</v>
+        <v>14.14</v>
       </c>
       <c r="C5">
-        <v>12.69</v>
+        <v>11.68</v>
       </c>
       <c r="D5">
-        <v>4.38</v>
+        <v>1.87</v>
       </c>
       <c r="E5">
-        <v>12.89</v>
+        <v>1.26</v>
       </c>
       <c r="F5">
-        <v>22.59</v>
+        <v>16.01</v>
       </c>
       <c r="G5">
-        <v>7.69</v>
+        <v>26.71</v>
       </c>
       <c r="H5">
-        <v>1.84</v>
+        <v>6.12</v>
       </c>
       <c r="I5">
-        <v>8.110000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J5">
-        <v>10.47</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="K5">
-        <v>6.84</v>
+        <v>14.43</v>
       </c>
       <c r="L5">
-        <v>72.73999999999999</v>
+        <v>71.67</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1574,227 +1574,227 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>12.3</v>
+        <v>11.91</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>16.75</v>
       </c>
       <c r="D6">
-        <v>5.74</v>
+        <v>4.73</v>
       </c>
       <c r="E6">
-        <v>20.28</v>
+        <v>0.26</v>
       </c>
       <c r="F6">
-        <v>16.86</v>
+        <v>6.11</v>
       </c>
       <c r="G6">
-        <v>2.85</v>
+        <v>24.38</v>
       </c>
       <c r="H6">
-        <v>3.38</v>
+        <v>16.56</v>
       </c>
       <c r="I6">
-        <v>11.38</v>
+        <v>1.7</v>
       </c>
       <c r="J6">
-        <v>10.74</v>
+        <v>3.87</v>
       </c>
       <c r="K6">
-        <v>7.969999999999999</v>
+        <v>13.73</v>
       </c>
       <c r="L6">
-        <v>66.53</v>
+        <v>64.14</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>10.29</v>
+        <v>9.44</v>
       </c>
       <c r="C7">
-        <v>18.64</v>
+        <v>1.93</v>
       </c>
       <c r="D7">
-        <v>7.580000000000001</v>
+        <v>13.39</v>
       </c>
       <c r="E7">
-        <v>6.41</v>
+        <v>21.11</v>
       </c>
       <c r="F7">
-        <v>20.95</v>
+        <v>6.61</v>
       </c>
       <c r="G7">
-        <v>14.81</v>
+        <v>0.25</v>
       </c>
       <c r="H7">
-        <v>2.51</v>
+        <v>3.58</v>
       </c>
       <c r="I7">
-        <v>5.16</v>
+        <v>18.31</v>
       </c>
       <c r="J7">
-        <v>8.32</v>
+        <v>20.85</v>
       </c>
       <c r="K7">
-        <v>5.33</v>
+        <v>4.53</v>
       </c>
       <c r="L7">
-        <v>78.68000000000001</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7.19</v>
+        <v>7.44</v>
       </c>
       <c r="C8">
-        <v>9.180000000000001</v>
+        <v>18.47</v>
       </c>
       <c r="D8">
-        <v>13.17</v>
+        <v>8.9</v>
       </c>
       <c r="E8">
-        <v>4.850000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="F8">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="G8">
-        <v>8.540000000000001</v>
+        <v>15.25</v>
       </c>
       <c r="H8">
-        <v>21.71</v>
+        <v>24.9</v>
       </c>
       <c r="I8">
-        <v>11.6</v>
+        <v>6.78</v>
       </c>
       <c r="J8">
-        <v>6.75</v>
+        <v>1.96</v>
       </c>
       <c r="K8">
-        <v>15.9</v>
+        <v>13.63</v>
       </c>
       <c r="L8">
-        <v>44.04</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7.109999999999999</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="C9">
-        <v>10.81</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>11.09</v>
+        <v>17.65</v>
       </c>
       <c r="E9">
-        <v>2.92</v>
+        <v>14.45</v>
       </c>
       <c r="F9">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="G9">
-        <v>15.6</v>
+        <v>0.52</v>
       </c>
       <c r="H9">
-        <v>20.18</v>
+        <v>11.27</v>
       </c>
       <c r="I9">
-        <v>6.3</v>
+        <v>26.96</v>
       </c>
       <c r="J9">
-        <v>9.300000000000001</v>
+        <v>14.31</v>
       </c>
       <c r="K9">
-        <v>14.05</v>
+        <v>1.34</v>
       </c>
       <c r="L9">
-        <v>50.17</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>6.73</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="C10">
-        <v>10.06</v>
+        <v>18.87</v>
       </c>
       <c r="D10">
-        <v>6.3</v>
+        <v>15.83</v>
       </c>
       <c r="E10">
-        <v>2.46</v>
+        <v>2.69</v>
       </c>
       <c r="F10">
-        <v>14.61</v>
+        <v>0.33</v>
       </c>
       <c r="G10">
-        <v>22.36</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="H10">
-        <v>6.98</v>
+        <v>21.83</v>
       </c>
       <c r="I10">
-        <v>6.78</v>
+        <v>14.19</v>
       </c>
       <c r="J10">
-        <v>15.64</v>
+        <v>2.03</v>
       </c>
       <c r="K10">
-        <v>8.08</v>
+        <v>13.01</v>
       </c>
       <c r="L10">
-        <v>62.52</v>
+        <v>48.94</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>4.87</v>
+        <v>1.52</v>
       </c>
       <c r="C11">
-        <v>7.84</v>
+        <v>15.39</v>
       </c>
       <c r="D11">
-        <v>5.84</v>
+        <v>28.66</v>
       </c>
       <c r="E11">
-        <v>1.54</v>
+        <v>11.96</v>
       </c>
       <c r="F11">
-        <v>6.950000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="G11">
-        <v>22.06</v>
+        <v>2.09</v>
       </c>
       <c r="H11">
-        <v>13.15</v>
+        <v>13.34</v>
       </c>
       <c r="I11">
-        <v>5.47</v>
+        <v>16.73</v>
       </c>
       <c r="J11">
-        <v>17.2</v>
+        <v>3.92</v>
       </c>
       <c r="K11">
-        <v>15.08</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="L11">
-        <v>49.09999999999999</v>
+        <v>60.16000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1812,19 +1812,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1832,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1852,19 +1852,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1872,19 +1872,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1895,13 +1895,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1932,16 +1932,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1955,13 +1955,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1975,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1995,16 +1995,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2015,16 +2015,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>-31</v>
+        <v>-38</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2034,174 +2034,186 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>13</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2238,93 +2250,102 @@
       <c r="L5">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-10</v>
+      </c>
+      <c r="D6">
+        <v>-16</v>
+      </c>
+      <c r="E6">
+        <v>-12</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-7</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-7</v>
+      </c>
+      <c r="K6">
+        <v>-7</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-10</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-7</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-10</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-5</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-4</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-10</v>
-      </c>
-      <c r="D7">
-        <v>-16</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-6</v>
-      </c>
-      <c r="H7">
-        <v>-7</v>
-      </c>
-      <c r="I7">
-        <v>-7</v>
-      </c>
-      <c r="J7">
-        <v>-7</v>
-      </c>
-      <c r="K7">
-        <v>-7</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
         <v>-4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2361,11 +2382,14 @@
       <c r="L8">
         <v>-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>-6</v>
+      </c>
+      <c r="N8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2402,11 +2426,14 @@
       <c r="L9">
         <v>-16</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>-11</v>
+      </c>
+      <c r="N9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2443,11 +2470,14 @@
       <c r="L10">
         <v>-17</v>
       </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2484,8 +2514,11 @@
       <c r="L11">
         <v>-31</v>
       </c>
-      <c r="M11" t="s">
-        <v>61</v>
+      <c r="M11">
+        <v>-38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2528,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,25 +2588,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>-28</v>
+        <v>-38</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2581,25 +2614,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-25</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2607,25 +2640,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
       <c r="F5">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2633,22 +2666,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="F6">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -2659,25 +2692,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2685,25 +2718,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2711,25 +2744,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>-31</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2737,25 +2770,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2763,25 +2796,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F11">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2789,25 +2822,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="F12">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2815,24 +2848,76 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>-4</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>-4</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>-7</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="81">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,43 +52,40 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>5-6-1</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>6-5-1</t>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>5-7-1</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>6-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,54 +154,57 @@
     <t>Utkarsh Gupta</t>
   </si>
   <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
-    <t>Kabir Manocha</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
+    <t>Heba I</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Heba I</t>
-  </si>
-  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑5</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -663,31 +666,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -695,34 +698,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -730,34 +733,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -765,34 +768,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -800,34 +803,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -838,31 +841,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -870,34 +873,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -905,34 +908,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -943,31 +946,31 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -975,34 +978,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1020,13 +1023,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1048,13 +1051,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1062,13 +1065,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1076,13 +1079,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1090,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1104,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1118,13 +1121,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1135,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1149,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1163,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1184,16 +1187,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1204,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D2">
-        <v>-1.6</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1221,13 +1224,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1238,13 +1241,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D4">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1261,7 +1264,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1272,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1289,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1306,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1323,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1337,16 +1340,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D10">
-        <v>-2.7</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1354,16 +1357,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D11">
-        <v>0.2000000000000002</v>
+        <v>-2.6</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1381,116 +1384,116 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>15.42</v>
+        <v>30.43</v>
       </c>
       <c r="C2">
-        <v>7.55</v>
+        <v>6.11</v>
       </c>
       <c r="D2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.22</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>26.75</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>16.35</v>
+        <v>16.29</v>
       </c>
       <c r="H2">
-        <v>1.37</v>
+        <v>47.17</v>
       </c>
       <c r="I2">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.74</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.44</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>72.91999999999999</v>
+        <v>52.83</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>14.47</v>
+        <v>22.4</v>
       </c>
       <c r="C3">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17.37</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.82</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="H3">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.78</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>67.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1498,227 +1501,227 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.38</v>
+        <v>22.1</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7.01</v>
+        <v>1.17</v>
       </c>
       <c r="E4">
-        <v>23.69</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.54</v>
+        <v>4.94</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>31.72</v>
       </c>
       <c r="I4">
-        <v>8.649999999999999</v>
+        <v>25.07</v>
       </c>
       <c r="J4">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.260000000000002</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>63.12</v>
+        <v>43.21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>14.14</v>
+        <v>13.82</v>
       </c>
       <c r="C5">
-        <v>11.68</v>
+        <v>20.79</v>
       </c>
       <c r="D5">
-        <v>1.87</v>
+        <v>4.77</v>
       </c>
       <c r="E5">
-        <v>1.26</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>16.01</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>26.71</v>
+        <v>1.05</v>
       </c>
       <c r="H5">
-        <v>6.12</v>
+        <v>15.17</v>
       </c>
       <c r="I5">
-        <v>0.6899999999999999</v>
+        <v>33.03</v>
       </c>
       <c r="J5">
-        <v>7.090000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="K5">
-        <v>14.43</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>71.67</v>
+        <v>40.54999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>11.91</v>
+        <v>8.83</v>
       </c>
       <c r="C6">
-        <v>16.75</v>
+        <v>27.35</v>
       </c>
       <c r="D6">
-        <v>4.73</v>
+        <v>14.56</v>
       </c>
       <c r="E6">
-        <v>0.26</v>
+        <v>1.42</v>
       </c>
       <c r="F6">
-        <v>6.11</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>24.38</v>
+        <v>0.11</v>
       </c>
       <c r="H6">
-        <v>16.56</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I6">
-        <v>1.7</v>
+        <v>21.4</v>
       </c>
       <c r="J6">
-        <v>3.87</v>
+        <v>19.5</v>
       </c>
       <c r="K6">
-        <v>13.73</v>
+        <v>2.42</v>
       </c>
       <c r="L6">
-        <v>64.14</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9.44</v>
+        <v>2.42</v>
       </c>
       <c r="C7">
-        <v>1.93</v>
+        <v>21.55</v>
       </c>
       <c r="D7">
-        <v>13.39</v>
+        <v>24.69</v>
       </c>
       <c r="E7">
-        <v>21.11</v>
+        <v>5.5</v>
       </c>
       <c r="F7">
-        <v>6.61</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>3.58</v>
+        <v>1.33</v>
       </c>
       <c r="I7">
-        <v>18.31</v>
+        <v>13.46</v>
       </c>
       <c r="J7">
-        <v>20.85</v>
+        <v>24.06</v>
       </c>
       <c r="K7">
-        <v>4.53</v>
+        <v>6.78</v>
       </c>
       <c r="L7">
-        <v>52.73</v>
+        <v>54.37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>7.44</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>18.47</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D8">
-        <v>8.9</v>
+        <v>29.72</v>
       </c>
       <c r="E8">
-        <v>0.9900000000000001</v>
+        <v>14.05</v>
       </c>
       <c r="F8">
-        <v>1.68</v>
+        <v>1.22</v>
       </c>
       <c r="G8">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>24.9</v>
+        <v>0.21</v>
       </c>
       <c r="I8">
-        <v>6.78</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="J8">
-        <v>1.96</v>
+        <v>24.1</v>
       </c>
       <c r="K8">
-        <v>13.63</v>
+        <v>15.89</v>
       </c>
       <c r="L8">
-        <v>52.73</v>
+        <v>54.19</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7.149999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>17.65</v>
+        <v>25.09</v>
       </c>
       <c r="E9">
-        <v>14.45</v>
+        <v>29.13</v>
       </c>
       <c r="F9">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="G9">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>26.96</v>
+        <v>1.43</v>
       </c>
       <c r="J9">
-        <v>14.31</v>
+        <v>15.33</v>
       </c>
       <c r="K9">
-        <v>1.34</v>
+        <v>24.69</v>
       </c>
       <c r="L9">
-        <v>46.12</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1726,37 +1729,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>18.87</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>15.83</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.69</v>
+        <v>49.78</v>
       </c>
       <c r="F10">
-        <v>0.33</v>
+        <v>19.59</v>
       </c>
       <c r="G10">
-        <v>7.090000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>21.83</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.03</v>
+        <v>5.76</v>
       </c>
       <c r="K10">
-        <v>13.01</v>
+        <v>24.87</v>
       </c>
       <c r="L10">
-        <v>48.94</v>
+        <v>69.37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1764,37 +1767,37 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>15.39</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>28.66</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>11.96</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.54</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="G11">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>13.34</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.73</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5.850000000000001</v>
+        <v>25.35</v>
       </c>
       <c r="L11">
-        <v>60.16000000000001</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1812,19 +1815,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1835,16 +1838,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1855,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1872,19 +1875,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1892,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1912,16 +1915,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1932,13 +1935,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1955,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1972,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1992,19 +1995,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2015,13 +2018,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>-38</v>
+        <v>-44</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2034,13 +2037,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2078,10 +2081,13 @@
         <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2121,11 +2127,14 @@
       <c r="M2">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,187 +2174,202 @@
       <c r="M3">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B5">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
       <c r="J5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>-4</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="M6">
+        <v>-4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>-10</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-16</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-12</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-6</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-7</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-7</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-7</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-7</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-4</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-10</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-10</v>
-      </c>
-      <c r="G7">
-        <v>-5</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>-4</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>-4</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2385,99 +2409,108 @@
       <c r="M8">
         <v>-6</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <v>-11</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
+        <v>-18</v>
+      </c>
+      <c r="N9">
+        <v>-10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-11</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-16</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-24</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-28</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-25</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-17</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-16</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>-11</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10">
+        <v>-18</v>
+      </c>
+      <c r="O10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>-2</v>
-      </c>
-      <c r="K10">
-        <v>-11</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10">
-        <v>-18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2550,10 @@
       <c r="M11">
         <v>-38</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>-44</v>
+      </c>
+      <c r="O11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2536,25 +2572,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2718,25 +2754,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
       <c r="F8">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2744,22 +2780,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>-31</v>
+        <v>-13</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -2773,22 +2809,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2796,25 +2832,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2822,25 +2858,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2848,25 +2884,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="F13">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2874,22 +2910,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
       <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
         <v>-4</v>
       </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
       <c r="G14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -2900,25 +2936,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F15">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,40 +52,40 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>5-7-1</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>6-6-1</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-8-1</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,63 +148,63 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
+    <t>Heba I</t>
   </si>
   <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Heba I</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -666,31 +669,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -707,19 +710,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -736,13 +739,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -754,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -771,17 +774,17 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
@@ -789,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -806,13 +809,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -824,13 +827,13 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -838,34 +841,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -873,34 +876,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -911,31 +914,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -943,34 +946,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -978,34 +981,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1054,10 +1057,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1065,13 +1068,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1082,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1093,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1107,13 +1110,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1124,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1138,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1152,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1166,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1224,13 +1227,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D3">
-        <v>0.3000000000000007</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1241,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D4">
-        <v>-0.2999999999999998</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1258,13 +1261,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="D5">
         <v>-0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1275,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="D6">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1292,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1309,13 +1312,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1323,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>-0.7000000000000002</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1340,16 +1343,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D10">
-        <v>0.09999999999999964</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1360,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1422,13 +1425,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>30.43</v>
+        <v>29.25</v>
       </c>
       <c r="C2">
-        <v>6.11</v>
+        <v>5.87</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1440,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>16.29</v>
+        <v>17.15</v>
       </c>
       <c r="H2">
-        <v>47.17</v>
+        <v>47.73</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>52.83</v>
+        <v>52.27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1463,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>22.4</v>
+        <v>23.02</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>77.60000000000001</v>
+        <v>76.98</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1501,13 +1504,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>22.1</v>
+        <v>21.78</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14.37</v>
       </c>
       <c r="D4">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1516,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.94</v>
+        <v>4.78</v>
       </c>
       <c r="H4">
-        <v>31.72</v>
+        <v>32.02999999999999</v>
       </c>
       <c r="I4">
-        <v>25.07</v>
+        <v>25.95</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1531,45 +1534,45 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>43.21</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>14.56</v>
+      </c>
+      <c r="C5">
+        <v>19.78</v>
+      </c>
+      <c r="D5">
+        <v>4.43</v>
+      </c>
+      <c r="E5">
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>13.82</v>
-      </c>
-      <c r="C5">
-        <v>20.79</v>
-      </c>
-      <c r="D5">
-        <v>4.77</v>
-      </c>
-      <c r="E5">
-        <v>0.12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1.05</v>
-      </c>
       <c r="H5">
-        <v>15.17</v>
+        <v>14.72</v>
       </c>
       <c r="I5">
-        <v>33.03</v>
+        <v>34.03</v>
       </c>
       <c r="J5">
-        <v>11.25</v>
+        <v>11.39</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>40.54999999999999</v>
+        <v>39.86000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1577,118 +1580,118 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.83</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="C6">
-        <v>27.35</v>
+        <v>28.51</v>
       </c>
       <c r="D6">
-        <v>14.56</v>
+        <v>13.73</v>
       </c>
       <c r="E6">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="F6">
         <v>0.01</v>
       </c>
       <c r="G6">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H6">
-        <v>4.399999999999999</v>
+        <v>4.03</v>
       </c>
       <c r="I6">
-        <v>21.4</v>
+        <v>20.77</v>
       </c>
       <c r="J6">
-        <v>19.5</v>
+        <v>20.08</v>
       </c>
       <c r="K6">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="L6">
-        <v>52.28</v>
+        <v>52.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="C7">
-        <v>21.55</v>
+        <v>22.12</v>
       </c>
       <c r="D7">
-        <v>24.69</v>
+        <v>26.37</v>
       </c>
       <c r="E7">
-        <v>5.5</v>
+        <v>6.21</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G7">
         <v>0.01</v>
       </c>
       <c r="H7">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="I7">
-        <v>13.46</v>
+        <v>11.55</v>
       </c>
       <c r="J7">
-        <v>24.06</v>
+        <v>22.91</v>
       </c>
       <c r="K7">
-        <v>6.78</v>
+        <v>6.83</v>
       </c>
       <c r="L7">
-        <v>54.37</v>
+        <v>57.47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="D8">
-        <v>29.72</v>
+        <v>31.65</v>
       </c>
       <c r="E8">
-        <v>14.05</v>
+        <v>17.22</v>
       </c>
       <c r="F8">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>5.609999999999999</v>
+        <v>5.76</v>
       </c>
       <c r="J8">
-        <v>24.1</v>
+        <v>20.7</v>
       </c>
       <c r="K8">
-        <v>15.89</v>
+        <v>13.38</v>
       </c>
       <c r="L8">
-        <v>54.19</v>
+        <v>59.91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1697,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>25.09</v>
+        <v>22.73</v>
       </c>
       <c r="E9">
-        <v>29.13</v>
+        <v>32.06</v>
       </c>
       <c r="F9">
-        <v>4.33</v>
+        <v>6.45</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1712,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="J9">
-        <v>15.33</v>
+        <v>16.53</v>
       </c>
       <c r="K9">
-        <v>24.69</v>
+        <v>20.29</v>
       </c>
       <c r="L9">
-        <v>58.55</v>
+        <v>61.24000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1738,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>49.78</v>
+        <v>43.02</v>
       </c>
       <c r="F10">
-        <v>19.59</v>
+        <v>21.43</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1753,18 +1756,18 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.76</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K10">
-        <v>24.87</v>
+        <v>27.16</v>
       </c>
       <c r="L10">
-        <v>69.37</v>
+        <v>64.45</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1779,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>74.65000000000001</v>
+        <v>70.17999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1794,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.35</v>
+        <v>29.82</v>
       </c>
       <c r="L11">
-        <v>74.65000000000001</v>
+        <v>70.17999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1835,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1855,16 +1858,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -1881,10 +1884,10 @@
         <v>44</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1901,10 +1904,10 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1915,16 +1918,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1935,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1944,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1955,19 +1958,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1975,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2001,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>-18</v>
+        <v>-26</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2021,7 +2024,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>-44</v>
+        <v>-40</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -2037,13 +2040,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2084,104 +2087,113 @@
         <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>19</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>19</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>22</v>
-      </c>
-      <c r="N3">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2224,11 +2236,14 @@
       <c r="N4">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2271,199 +2286,214 @@
       <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-10</v>
+      </c>
+      <c r="D6">
+        <v>-16</v>
+      </c>
+      <c r="E6">
+        <v>-12</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-7</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-7</v>
+      </c>
+      <c r="K6">
+        <v>-7</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-10</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-7</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-10</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-5</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-4</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-4</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8">
+        <v>-17</v>
+      </c>
+      <c r="M8">
+        <v>-18</v>
+      </c>
+      <c r="N8">
         <v>-10</v>
       </c>
-      <c r="D7">
-        <v>-16</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
-      <c r="F7">
+      <c r="O8">
+        <v>-5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9">
         <v>-6</v>
       </c>
-      <c r="G7">
-        <v>-6</v>
-      </c>
-      <c r="H7">
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
         <v>-7</v>
       </c>
-      <c r="I7">
-        <v>-7</v>
-      </c>
-      <c r="J7">
-        <v>-7</v>
-      </c>
-      <c r="K7">
-        <v>-7</v>
-      </c>
-      <c r="L7">
-        <v>-4</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>-5</v>
-      </c>
-      <c r="M8">
-        <v>-6</v>
-      </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>-2</v>
-      </c>
-      <c r="K9">
-        <v>-11</v>
-      </c>
-      <c r="L9">
-        <v>-17</v>
-      </c>
-      <c r="M9">
-        <v>-18</v>
-      </c>
-      <c r="N9">
-        <v>-10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,11 +2536,14 @@
       <c r="N10">
         <v>-18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>-26</v>
+      </c>
+      <c r="P10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2586,10 @@
       <c r="N11">
         <v>-44</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>-40</v>
+      </c>
+      <c r="P11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2564,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2572,25 +2608,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2910,25 +2946,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2936,24 +2972,50 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>-4</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>-4</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Game of Yards! 2023.xlsx
+++ b/Game of Yards! 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="84">
   <si>
     <t>Kelce You Again!</t>
   </si>
@@ -52,40 +52,46 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>5-8-1</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,12 +154,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
@@ -178,33 +184,30 @@
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -669,28 +675,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -704,28 +710,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -739,31 +745,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -774,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -786,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -809,31 +815,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -844,31 +850,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -879,25 +885,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -911,34 +917,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -984,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1026,13 +1032,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1054,13 +1060,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1068,13 +1074,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1085,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1099,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1113,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1124,13 +1130,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1138,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1155,10 +1161,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1169,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1190,16 +1196,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1210,13 +1216,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D2">
-        <v>-1.300000000000001</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1227,13 +1233,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1244,13 +1250,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D4">
-        <v>0.1999999999999993</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1261,13 +1267,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="D5">
-        <v>-0.2999999999999998</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1278,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="D6">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1295,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1312,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>-0.7000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1326,16 +1332,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>-0.09999999999999964</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1343,13 +1349,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>-0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1387,40 +1393,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1428,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.25</v>
+        <v>27.5</v>
       </c>
       <c r="C2">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1443,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>17.15</v>
+        <v>18.94</v>
       </c>
       <c r="H2">
-        <v>47.73</v>
+        <v>47.51000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1458,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>52.27</v>
+        <v>52.49000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1466,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>23.02</v>
+        <v>24.99</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1481,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>76.98</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1504,13 +1510,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21.78</v>
+        <v>21.35</v>
       </c>
       <c r="C4">
-        <v>14.37</v>
+        <v>14.1</v>
       </c>
       <c r="D4">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1519,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.78</v>
+        <v>4.72</v>
       </c>
       <c r="H4">
-        <v>32.02999999999999</v>
+        <v>32.34</v>
       </c>
       <c r="I4">
-        <v>25.95</v>
+        <v>26.16</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>42.02</v>
+        <v>41.49999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1542,37 +1548,37 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>14.56</v>
+        <v>14.49</v>
       </c>
       <c r="C5">
-        <v>19.78</v>
+        <v>19.89</v>
       </c>
       <c r="D5">
-        <v>4.43</v>
+        <v>4.22</v>
       </c>
       <c r="E5">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="H5">
-        <v>14.72</v>
+        <v>14.6</v>
       </c>
       <c r="I5">
-        <v>34.03</v>
+        <v>33.8</v>
       </c>
       <c r="J5">
-        <v>11.39</v>
+        <v>11.67</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>39.86000000000001</v>
+        <v>39.93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1580,37 +1586,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.870000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="C6">
-        <v>28.51</v>
+        <v>27.61</v>
       </c>
       <c r="D6">
-        <v>13.73</v>
+        <v>13.26</v>
       </c>
       <c r="E6">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>4.03</v>
+        <v>4.23</v>
       </c>
       <c r="I6">
-        <v>20.77</v>
+        <v>21.23</v>
       </c>
       <c r="J6">
-        <v>20.08</v>
+        <v>20.68</v>
       </c>
       <c r="K6">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="L6">
-        <v>52.59999999999999</v>
+        <v>51.21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1618,37 +1624,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="C7">
-        <v>22.12</v>
+        <v>22.62</v>
       </c>
       <c r="D7">
-        <v>26.37</v>
+        <v>26.35</v>
       </c>
       <c r="E7">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="F7">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H7">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
         <v>11.55</v>
       </c>
       <c r="J7">
-        <v>22.91</v>
+        <v>22.49</v>
       </c>
       <c r="K7">
-        <v>6.83</v>
+        <v>7.08</v>
       </c>
       <c r="L7">
-        <v>57.47</v>
+        <v>57.79000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1659,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.35</v>
+        <v>9.73</v>
       </c>
       <c r="D8">
-        <v>31.65</v>
+        <v>32.05</v>
       </c>
       <c r="E8">
-        <v>17.22</v>
+        <v>17.09</v>
       </c>
       <c r="F8">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I8">
-        <v>5.76</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="J8">
-        <v>20.7</v>
+        <v>20.81</v>
       </c>
       <c r="K8">
-        <v>13.38</v>
+        <v>13.06</v>
       </c>
       <c r="L8">
-        <v>59.91</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1700,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>22.73</v>
+        <v>22.79</v>
       </c>
       <c r="E9">
-        <v>32.06</v>
+        <v>31.97</v>
       </c>
       <c r="F9">
-        <v>6.45</v>
+        <v>6.54</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1715,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
       <c r="J9">
-        <v>16.53</v>
+        <v>16.35</v>
       </c>
       <c r="K9">
-        <v>20.29</v>
+        <v>20.89</v>
       </c>
       <c r="L9">
-        <v>61.24000000000001</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1741,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>43.02</v>
+        <v>43.68</v>
       </c>
       <c r="F10">
-        <v>21.43</v>
+        <v>22.59</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1756,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.390000000000001</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>27.16</v>
+        <v>25.73</v>
       </c>
       <c r="L10">
-        <v>64.45</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1782,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>70.17999999999999</v>
+        <v>69.41000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1797,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.82</v>
+        <v>30.59</v>
       </c>
       <c r="L11">
-        <v>70.17999999999999</v>
+        <v>69.41000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1818,19 +1824,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1838,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1858,19 +1864,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1881,16 +1887,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1901,16 +1907,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1921,16 +1927,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1941,16 +1947,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1961,16 +1967,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1981,16 +1987,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2001,16 +2007,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2021,16 +2027,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>-40</v>
+        <v>-46</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2040,160 +2046,169 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>19</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>23</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>28</v>
-      </c>
-      <c r="N3">
-        <v>26</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2239,11 +2254,14 @@
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2289,11 +2307,14 @@
       <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2339,11 +2360,14 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2389,11 +2413,14 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2439,11 +2466,14 @@
       <c r="O8">
         <v>-5</v>
       </c>
-      <c r="P8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,11 +2519,14 @@
       <c r="O9">
         <v>-7</v>
       </c>
-      <c r="P9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-13</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2539,11 +2572,14 @@
       <c r="O10">
         <v>-26</v>
       </c>
-      <c r="P10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2589,8 +2625,11 @@
       <c r="O11">
         <v>-40</v>
       </c>
-      <c r="P11" t="s">
-        <v>60</v>
+      <c r="P11">
+        <v>-46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2608,25 +2647,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2842,25 +2881,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>-31</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2871,22 +2910,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2894,25 +2933,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2920,25 +2959,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2946,25 +2985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>-7</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2972,25 +3011,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2998,22 +3037,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
       <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
         <v>-4</v>
       </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
       <c r="G16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
